--- a/outputs-HGR-r202/test-o__Lactobacillales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Lactobacillales_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t>Row</t>
   </si>
@@ -250,6 +250,9 @@
     <t>even_MAG-GUT2060.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT23295.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT26238.fa</t>
   </si>
   <si>
@@ -274,12 +277,21 @@
     <t>even_MAG-GUT32654.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33836.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3427.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT3435.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT34540.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3477.fa</t>
   </si>
   <si>
@@ -292,6 +304,9 @@
     <t>even_MAG-GUT3493.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT34945.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT3499.fa</t>
   </si>
   <si>
@@ -745,6 +760,9 @@
     <t>even_MAG-GUT76426.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80232.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT83501.fa</t>
   </si>
   <si>
@@ -967,6 +985,9 @@
     <t>even_MAG-GUT90636.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90671.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90682.fa</t>
   </si>
   <si>
@@ -974,6 +995,9 @@
   </si>
   <si>
     <t>even_MAG-GUT90730.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90775.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT90777.fa</t>
@@ -1252,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G399"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -1269,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -3063,22 +3087,22 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>9.2157592897819868e-10</v>
+        <v>4.2263962316853338e-05</v>
       </c>
       <c r="C79">
-        <v>0.99355175208540258</v>
+        <v>0.3372583896995876</v>
       </c>
       <c r="D79">
-        <v>1.0181115705356686e-06</v>
+        <v>0.66056671334930173</v>
       </c>
       <c r="E79">
-        <v>0.0063820838838731233</v>
+        <v>0.0014120612370365998</v>
       </c>
       <c r="F79">
-        <v>6.5144997577986795e-05</v>
+        <v>0.0007205717517571493</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3086,19 +3110,19 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.0898828944702077e-09</v>
+        <v>9.2157592897819868e-10</v>
       </c>
       <c r="C80">
-        <v>0.98794561924877367</v>
+        <v>0.99355175208540258</v>
       </c>
       <c r="D80">
-        <v>2.7183871431649522e-06</v>
+        <v>1.0181115705356686e-06</v>
       </c>
       <c r="E80">
-        <v>0.010640692398511552</v>
+        <v>0.0063820838838731233</v>
       </c>
       <c r="F80">
-        <v>0.0014109688756887594</v>
+        <v>6.5144997577986795e-05</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -3109,22 +3133,22 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.0034149063964688036</v>
+        <v>1.0898828944702077e-09</v>
       </c>
       <c r="C81">
-        <v>0.012420454204443552</v>
+        <v>0.98794561924877367</v>
       </c>
       <c r="D81">
-        <v>0.94118846391635569</v>
+        <v>2.7183871431649522e-06</v>
       </c>
       <c r="E81">
-        <v>0.033259369246045639</v>
+        <v>0.010640692398511552</v>
       </c>
       <c r="F81">
-        <v>0.0097168062366862051</v>
+        <v>0.0014109688756887594</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -3132,19 +3156,19 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4.6726853081472504e-11</v>
+        <v>0.0034149063964688036</v>
       </c>
       <c r="C82">
-        <v>0.0014120058355849164</v>
+        <v>0.012420454204443552</v>
       </c>
       <c r="D82">
-        <v>0.99842460056257287</v>
+        <v>0.94118846391635569</v>
       </c>
       <c r="E82">
-        <v>0.00014553059921204291</v>
+        <v>0.033259369246045639</v>
       </c>
       <c r="F82">
-        <v>1.7862955903289428e-05</v>
+        <v>0.0097168062366862051</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -3155,19 +3179,19 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.00081235135671756315</v>
+        <v>4.6726853081472504e-11</v>
       </c>
       <c r="C83">
-        <v>1.024905983806612e-05</v>
+        <v>0.0014120058355849164</v>
       </c>
       <c r="D83">
-        <v>0.99424507390105887</v>
+        <v>0.99842460056257287</v>
       </c>
       <c r="E83">
-        <v>0.0045702239567158593</v>
+        <v>0.00014553059921204291</v>
       </c>
       <c r="F83">
-        <v>0.00036210172566956197</v>
+        <v>1.7862955903289428e-05</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -3178,22 +3202,22 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.6123576033728314e-05</v>
+        <v>0.00081235135671756315</v>
       </c>
       <c r="C84">
-        <v>0.9359163019396084</v>
+        <v>1.024905983806612e-05</v>
       </c>
       <c r="D84">
-        <v>0.037583089684436681</v>
+        <v>0.99424507390105887</v>
       </c>
       <c r="E84">
-        <v>0.024059154730248965</v>
+        <v>0.0045702239567158593</v>
       </c>
       <c r="F84">
-        <v>0.0024253300696721715</v>
+        <v>0.00036210172566956197</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3201,19 +3225,19 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.00011164085829057806</v>
+        <v>1.6123576033728314e-05</v>
       </c>
       <c r="C85">
-        <v>0.94441407486053741</v>
+        <v>0.9359163019396084</v>
       </c>
       <c r="D85">
-        <v>0.036304943146494247</v>
+        <v>0.037583089684436681</v>
       </c>
       <c r="E85">
-        <v>0.018756812913681427</v>
+        <v>0.024059154730248965</v>
       </c>
       <c r="F85">
-        <v>0.00041252822099620057</v>
+        <v>0.0024253300696721715</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -3224,22 +3248,22 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.01028821006382297</v>
+        <v>0.00011164085829057806</v>
       </c>
       <c r="C86">
-        <v>7.1992369939529581e-06</v>
+        <v>0.94441407486053741</v>
       </c>
       <c r="D86">
-        <v>0.9863407642776536</v>
+        <v>0.036304943146494247</v>
       </c>
       <c r="E86">
-        <v>0.0029739460514298338</v>
+        <v>0.018756812913681427</v>
       </c>
       <c r="F86">
-        <v>0.00038988037009982004</v>
+        <v>0.00041252822099620057</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3247,19 +3271,19 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.0003204751503488322</v>
+        <v>0.01028821006382297</v>
       </c>
       <c r="C87">
-        <v>0.0033780491630709354</v>
+        <v>7.1992369939529581e-06</v>
       </c>
       <c r="D87">
-        <v>0.92808210196383145</v>
+        <v>0.9863407642776536</v>
       </c>
       <c r="E87">
-        <v>0.018106302010151783</v>
+        <v>0.0029739460514298338</v>
       </c>
       <c r="F87">
-        <v>0.05011307171259699</v>
+        <v>0.00038988037009982004</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -3270,19 +3294,19 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.00035026736672564071</v>
+        <v>0.00065203917952210008</v>
       </c>
       <c r="C88">
-        <v>0.03518771181359677</v>
+        <v>0.099906424260065574</v>
       </c>
       <c r="D88">
-        <v>0.85707608523723799</v>
+        <v>0.8849527820520009</v>
       </c>
       <c r="E88">
-        <v>0.03491846711093189</v>
+        <v>0.01131354278274602</v>
       </c>
       <c r="F88">
-        <v>0.072467468471507743</v>
+        <v>0.0031752117256654707</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -3293,22 +3317,22 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1.3130478809412425e-05</v>
+        <v>0.00015465808650620696</v>
       </c>
       <c r="C89">
-        <v>0.95268942712032623</v>
+        <v>0.054701764433016581</v>
       </c>
       <c r="D89">
-        <v>0.028095363478587695</v>
+        <v>0.93890114706412264</v>
       </c>
       <c r="E89">
-        <v>0.016484225428228621</v>
+        <v>0.004573951918416975</v>
       </c>
       <c r="F89">
-        <v>0.0027178534940479776</v>
+        <v>0.0016684784979377849</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -3316,22 +3340,22 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.00028560767218850934</v>
+        <v>0.0003204751503488322</v>
       </c>
       <c r="C90">
-        <v>0.94957601134194991</v>
+        <v>0.0033780491630709354</v>
       </c>
       <c r="D90">
-        <v>0.0045854721707370835</v>
+        <v>0.92808210196383145</v>
       </c>
       <c r="E90">
-        <v>0.038499001901790869</v>
+        <v>0.018106302010151783</v>
       </c>
       <c r="F90">
-        <v>0.0070539069133337823</v>
+        <v>0.05011307171259699</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -3339,22 +3363,22 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>5.9761961999019926e-06</v>
+        <v>0.00035026736672564071</v>
       </c>
       <c r="C91">
-        <v>0.971699375354794</v>
+        <v>0.03518771181359677</v>
       </c>
       <c r="D91">
-        <v>0.022028444442364733</v>
+        <v>0.85707608523723799</v>
       </c>
       <c r="E91">
-        <v>0.0039478997503085483</v>
+        <v>0.03491846711093189</v>
       </c>
       <c r="F91">
-        <v>0.0023183042563328345</v>
+        <v>0.072467468471507743</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -3362,22 +3386,22 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>6.5615715717799855e-06</v>
+        <v>5.0826911270770978e-05</v>
       </c>
       <c r="C92">
-        <v>0.97653240135083885</v>
+        <v>0.19443621831821342</v>
       </c>
       <c r="D92">
-        <v>0.0033791016661090215</v>
+        <v>0.80112290698373489</v>
       </c>
       <c r="E92">
-        <v>0.0053051594046666104</v>
+        <v>0.0035106616372420187</v>
       </c>
       <c r="F92">
-        <v>0.014776776006813678</v>
+        <v>0.00087938614953889051</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -3385,19 +3409,19 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7.1284478508573752e-05</v>
+        <v>1.3130478809412425e-05</v>
       </c>
       <c r="C93">
-        <v>0.97292911728358045</v>
+        <v>0.95268942712032623</v>
       </c>
       <c r="D93">
-        <v>0.010623828146466986</v>
+        <v>0.028095363478587695</v>
       </c>
       <c r="E93">
-        <v>0.0051981092945465115</v>
+        <v>0.016484225428228621</v>
       </c>
       <c r="F93">
-        <v>0.011177660796897389</v>
+        <v>0.0027178534940479776</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -3408,19 +3432,19 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7.1003862038466186e-06</v>
+        <v>0.00028560767218850934</v>
       </c>
       <c r="C94">
-        <v>0.99170249576437897</v>
+        <v>0.94957601134194991</v>
       </c>
       <c r="D94">
-        <v>0.00062976970491809153</v>
+        <v>0.0045854721707370835</v>
       </c>
       <c r="E94">
-        <v>0.002278097952534891</v>
+        <v>0.038499001901790869</v>
       </c>
       <c r="F94">
-        <v>0.0053825361919640491</v>
+        <v>0.0070539069133337823</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -3431,19 +3455,19 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.0022671542022579872</v>
+        <v>5.9761961999019926e-06</v>
       </c>
       <c r="C95">
-        <v>0.5687726347153822</v>
+        <v>0.971699375354794</v>
       </c>
       <c r="D95">
-        <v>0.29573020262677246</v>
+        <v>0.022028444442364733</v>
       </c>
       <c r="E95">
-        <v>0.073661960920276118</v>
+        <v>0.0039478997503085483</v>
       </c>
       <c r="F95">
-        <v>0.05956804753531144</v>
+        <v>0.0023183042563328345</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -3454,19 +3478,19 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4.5354705458491236e-06</v>
+        <v>6.5615715717799855e-06</v>
       </c>
       <c r="C96">
-        <v>0.96643241905085298</v>
+        <v>0.97653240135083885</v>
       </c>
       <c r="D96">
-        <v>0.0079827447399572673</v>
+        <v>0.0033791016661090215</v>
       </c>
       <c r="E96">
-        <v>0.010936731007551001</v>
+        <v>0.0053051594046666104</v>
       </c>
       <c r="F96">
-        <v>0.01464356973109297</v>
+        <v>0.014776776006813678</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3477,22 +3501,22 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5.4653655675046301e-05</v>
+        <v>0.0011818599878758833</v>
       </c>
       <c r="C97">
-        <v>0.95417135096344841</v>
+        <v>0.282439511042124</v>
       </c>
       <c r="D97">
-        <v>0.021899989214004326</v>
+        <v>0.69006721111494207</v>
       </c>
       <c r="E97">
-        <v>0.022892965351507786</v>
+        <v>0.012249871912627504</v>
       </c>
       <c r="F97">
-        <v>0.00098104081536458864</v>
+        <v>0.014061545942430486</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -3500,19 +3524,19 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.0007935589554785913</v>
+        <v>7.1284478508573752e-05</v>
       </c>
       <c r="C98">
-        <v>0.71974089093675875</v>
+        <v>0.97292911728358045</v>
       </c>
       <c r="D98">
-        <v>0.25381768483755535</v>
+        <v>0.010623828146466986</v>
       </c>
       <c r="E98">
-        <v>0.025239029507678611</v>
+        <v>0.0051981092945465115</v>
       </c>
       <c r="F98">
-        <v>0.00040883576252874715</v>
+        <v>0.011177660796897389</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3523,22 +3547,22 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>4.905816979357206e-06</v>
+        <v>7.1003862038466186e-06</v>
       </c>
       <c r="C99">
-        <v>0.00064043196053919723</v>
+        <v>0.99170249576437897</v>
       </c>
       <c r="D99">
-        <v>0.0021615889396093438</v>
+        <v>0.00062976970491809153</v>
       </c>
       <c r="E99">
-        <v>0.001288590125408791</v>
+        <v>0.002278097952534891</v>
       </c>
       <c r="F99">
-        <v>0.99590448315746327</v>
+        <v>0.0053825361919640491</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -3546,19 +3570,19 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.00019343906903173007</v>
+        <v>0.0022671542022579872</v>
       </c>
       <c r="C100">
-        <v>0.97109258269379917</v>
+        <v>0.5687726347153822</v>
       </c>
       <c r="D100">
-        <v>0.015204220938206281</v>
+        <v>0.29573020262677246</v>
       </c>
       <c r="E100">
-        <v>0.012939893059950766</v>
+        <v>0.073661960920276118</v>
       </c>
       <c r="F100">
-        <v>0.00056986423901208714</v>
+        <v>0.05956804753531144</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3569,19 +3593,19 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2.853447036718963e-05</v>
+        <v>4.5354705458491236e-06</v>
       </c>
       <c r="C101">
-        <v>0.9281715029933737</v>
+        <v>0.96643241905085298</v>
       </c>
       <c r="D101">
-        <v>0.0676670848382004</v>
+        <v>0.0079827447399572673</v>
       </c>
       <c r="E101">
-        <v>0.0040944676743340696</v>
+        <v>0.010936731007551001</v>
       </c>
       <c r="F101">
-        <v>3.8410023724744594e-05</v>
+        <v>0.01464356973109297</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -3592,19 +3616,19 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.00029096911507449737</v>
+        <v>5.4653655675046301e-05</v>
       </c>
       <c r="C102">
-        <v>0.94780644911017942</v>
+        <v>0.95417135096344841</v>
       </c>
       <c r="D102">
-        <v>0.040402638630547327</v>
+        <v>0.021899989214004326</v>
       </c>
       <c r="E102">
-        <v>0.010967156452487274</v>
+        <v>0.022892965351507786</v>
       </c>
       <c r="F102">
-        <v>0.00053278669171149184</v>
+        <v>0.00098104081536458864</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -3615,19 +3639,19 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>8.2023377511583541e-05</v>
+        <v>0.0007935589554785913</v>
       </c>
       <c r="C103">
-        <v>0.96492328532107619</v>
+        <v>0.71974089093675875</v>
       </c>
       <c r="D103">
-        <v>0.024152798770877275</v>
+        <v>0.25381768483755535</v>
       </c>
       <c r="E103">
-        <v>0.010769961313214249</v>
+        <v>0.025239029507678611</v>
       </c>
       <c r="F103">
-        <v>7.1931217320667185e-05</v>
+        <v>0.00040883576252874715</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -3638,22 +3662,22 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>8.3055325179652353e-05</v>
+        <v>4.905816979357206e-06</v>
       </c>
       <c r="C104">
-        <v>0.78216383055034289</v>
+        <v>0.00064043196053919723</v>
       </c>
       <c r="D104">
-        <v>0.20399334042789721</v>
+        <v>0.0021615889396093438</v>
       </c>
       <c r="E104">
-        <v>0.013495385502824421</v>
+        <v>0.001288590125408791</v>
       </c>
       <c r="F104">
-        <v>0.00026438819375582942</v>
+        <v>0.99590448315746327</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -3661,19 +3685,19 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7.5446775465269088e-05</v>
+        <v>0.00019343906903173007</v>
       </c>
       <c r="C105">
-        <v>0.84589529249122397</v>
+        <v>0.97109258269379917</v>
       </c>
       <c r="D105">
-        <v>0.13882110136643286</v>
+        <v>0.015204220938206281</v>
       </c>
       <c r="E105">
-        <v>0.014996223943689881</v>
+        <v>0.012939893059950766</v>
       </c>
       <c r="F105">
-        <v>0.00021193542318797198</v>
+        <v>0.00056986423901208714</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -3684,19 +3708,19 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3.5172561716686763e-05</v>
+        <v>2.853447036718963e-05</v>
       </c>
       <c r="C106">
-        <v>0.87635036606597294</v>
+        <v>0.9281715029933737</v>
       </c>
       <c r="D106">
-        <v>0.096165363891369524</v>
+        <v>0.0676670848382004</v>
       </c>
       <c r="E106">
-        <v>0.026872736196575594</v>
+        <v>0.0040944676743340696</v>
       </c>
       <c r="F106">
-        <v>0.00057636128436528279</v>
+        <v>3.8410023724744594e-05</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3707,19 +3731,19 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>9.0132036887630683e-05</v>
+        <v>0.00029096911507449737</v>
       </c>
       <c r="C107">
-        <v>0.92388826574037808</v>
+        <v>0.94780644911017942</v>
       </c>
       <c r="D107">
-        <v>0.058475215182589406</v>
+        <v>0.040402638630547327</v>
       </c>
       <c r="E107">
-        <v>0.016754925765757923</v>
+        <v>0.010967156452487274</v>
       </c>
       <c r="F107">
-        <v>0.00079146127438690158</v>
+        <v>0.00053278669171149184</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3730,19 +3754,19 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2.2746505984112833e-05</v>
+        <v>8.2023377511583541e-05</v>
       </c>
       <c r="C108">
-        <v>0.93599019461931998</v>
+        <v>0.96492328532107619</v>
       </c>
       <c r="D108">
-        <v>0.021464333717113405</v>
+        <v>0.024152798770877275</v>
       </c>
       <c r="E108">
-        <v>0.035361073182072059</v>
+        <v>0.010769961313214249</v>
       </c>
       <c r="F108">
-        <v>0.0071616519755103259</v>
+        <v>7.1931217320667185e-05</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3753,19 +3777,19 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.00016014820070638818</v>
+        <v>8.3055325179652353e-05</v>
       </c>
       <c r="C109">
-        <v>0.96097438253737533</v>
+        <v>0.78216383055034289</v>
       </c>
       <c r="D109">
-        <v>0.01771506594001512</v>
+        <v>0.20399334042789721</v>
       </c>
       <c r="E109">
-        <v>0.020665326944150318</v>
+        <v>0.013495385502824421</v>
       </c>
       <c r="F109">
-        <v>0.0004850763777527538</v>
+        <v>0.00026438819375582942</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -3776,22 +3800,22 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>4.3733383969935108e-05</v>
+        <v>7.5446775465269088e-05</v>
       </c>
       <c r="C110">
-        <v>0.00024107336016157736</v>
+        <v>0.84589529249122397</v>
       </c>
       <c r="D110">
-        <v>0.99362991487375052</v>
+        <v>0.13882110136643286</v>
       </c>
       <c r="E110">
-        <v>0.005719363238476465</v>
+        <v>0.014996223943689881</v>
       </c>
       <c r="F110">
-        <v>0.00036591514364144409</v>
+        <v>0.00021193542318797198</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3799,19 +3823,19 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2.0480100437658987e-05</v>
+        <v>3.5172561716686763e-05</v>
       </c>
       <c r="C111">
-        <v>0.87905706891015156</v>
+        <v>0.87635036606597294</v>
       </c>
       <c r="D111">
-        <v>0.11336820138844143</v>
+        <v>0.096165363891369524</v>
       </c>
       <c r="E111">
-        <v>0.0073539735773587803</v>
+        <v>0.026872736196575594</v>
       </c>
       <c r="F111">
-        <v>0.00020027602361046286</v>
+        <v>0.00057636128436528279</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -3822,19 +3846,19 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5.619100959664366e-09</v>
+        <v>9.0132036887630683e-05</v>
       </c>
       <c r="C112">
-        <v>0.99091369157266085</v>
+        <v>0.92388826574037808</v>
       </c>
       <c r="D112">
-        <v>1.9304601197587122e-06</v>
+        <v>0.058475215182589406</v>
       </c>
       <c r="E112">
-        <v>0.0086245823354986501</v>
+        <v>0.016754925765757923</v>
       </c>
       <c r="F112">
-        <v>0.00045979001261994991</v>
+        <v>0.00079146127438690158</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -3845,22 +3869,22 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.0159024141142026e-06</v>
+        <v>2.2746505984112833e-05</v>
       </c>
       <c r="C113">
-        <v>0.0019572659392993173</v>
+        <v>0.93599019461931998</v>
       </c>
       <c r="D113">
-        <v>0.0015680706717914196</v>
+        <v>0.021464333717113405</v>
       </c>
       <c r="E113">
-        <v>0.0038619738409745872</v>
+        <v>0.035361073182072059</v>
       </c>
       <c r="F113">
-        <v>0.99261067364552058</v>
+        <v>0.0071616519755103259</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3868,19 +3892,19 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>4.1223800800308987e-05</v>
+        <v>0.00016014820070638818</v>
       </c>
       <c r="C114">
-        <v>0.93732673862221405</v>
+        <v>0.96097438253737533</v>
       </c>
       <c r="D114">
-        <v>0.033557108117539272</v>
+        <v>0.01771506594001512</v>
       </c>
       <c r="E114">
-        <v>0.027588932384540236</v>
+        <v>0.020665326944150318</v>
       </c>
       <c r="F114">
-        <v>0.00148599707490609</v>
+        <v>0.0004850763777527538</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -3891,22 +3915,22 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.8670607723687663e-05</v>
+        <v>4.3733383969935108e-05</v>
       </c>
       <c r="C115">
-        <v>0.96060700067597216</v>
+        <v>0.00024107336016157736</v>
       </c>
       <c r="D115">
-        <v>0.024274895876357859</v>
+        <v>0.99362991487375052</v>
       </c>
       <c r="E115">
-        <v>0.013896795991844782</v>
+        <v>0.005719363238476465</v>
       </c>
       <c r="F115">
-        <v>0.0011926368481014642</v>
+        <v>0.00036591514364144409</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -3914,19 +3938,19 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>4.6996829861672297e-06</v>
+        <v>2.0480100437658987e-05</v>
       </c>
       <c r="C116">
-        <v>0.98378889540891845</v>
+        <v>0.87905706891015156</v>
       </c>
       <c r="D116">
-        <v>0.0086179031404890818</v>
+        <v>0.11336820138844143</v>
       </c>
       <c r="E116">
-        <v>0.0074014871327866567</v>
+        <v>0.0073539735773587803</v>
       </c>
       <c r="F116">
-        <v>0.00018701463481959378</v>
+        <v>0.00020027602361046286</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -3937,19 +3961,19 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.8038559083042069e-06</v>
+        <v>5.619100959664366e-09</v>
       </c>
       <c r="C117">
-        <v>0.96779867743455195</v>
+        <v>0.99091369157266085</v>
       </c>
       <c r="D117">
-        <v>0.023655473824830752</v>
+        <v>1.9304601197587122e-06</v>
       </c>
       <c r="E117">
-        <v>0.0083287011678124506</v>
+        <v>0.0086245823354986501</v>
       </c>
       <c r="F117">
-        <v>0.00021534371689662697</v>
+        <v>0.00045979001261994991</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -3960,22 +3984,22 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>5.619100959664366e-09</v>
+        <v>2.0159024141142026e-06</v>
       </c>
       <c r="C118">
-        <v>0.99091369157266085</v>
+        <v>0.0019572659392993173</v>
       </c>
       <c r="D118">
-        <v>1.9304601197587122e-06</v>
+        <v>0.0015680706717914196</v>
       </c>
       <c r="E118">
-        <v>0.0086245823354986501</v>
+        <v>0.0038619738409745872</v>
       </c>
       <c r="F118">
-        <v>0.00045979001261994991</v>
+        <v>0.99261067364552058</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -3983,19 +4007,19 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.0508870727575342e-05</v>
+        <v>4.1223800800308987e-05</v>
       </c>
       <c r="C119">
-        <v>0.95267937117937351</v>
+        <v>0.93732673862221405</v>
       </c>
       <c r="D119">
-        <v>0.025055805160774467</v>
+        <v>0.033557108117539272</v>
       </c>
       <c r="E119">
-        <v>0.021676555869192708</v>
+        <v>0.027588932384540236</v>
       </c>
       <c r="F119">
-        <v>0.00055775891993177474</v>
+        <v>0.00148599707490609</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -4006,19 +4030,19 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7.7584606600514795e-05</v>
+        <v>2.8670607723687663e-05</v>
       </c>
       <c r="C120">
-        <v>0.98052663208752833</v>
+        <v>0.96060700067597216</v>
       </c>
       <c r="D120">
-        <v>0.010104578493462834</v>
+        <v>0.024274895876357859</v>
       </c>
       <c r="E120">
-        <v>0.0091161048597349758</v>
+        <v>0.013896795991844782</v>
       </c>
       <c r="F120">
-        <v>0.00017509995267340494</v>
+        <v>0.0011926368481014642</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -4029,19 +4053,19 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.0014905532648277595</v>
+        <v>4.6996829861672297e-06</v>
       </c>
       <c r="C121">
-        <v>0.91249320664472189</v>
+        <v>0.98378889540891845</v>
       </c>
       <c r="D121">
-        <v>0.05531849491814627</v>
+        <v>0.0086179031404890818</v>
       </c>
       <c r="E121">
-        <v>0.028598083179236424</v>
+        <v>0.0074014871327866567</v>
       </c>
       <c r="F121">
-        <v>0.0020996619930677353</v>
+        <v>0.00018701463481959378</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -4052,19 +4076,19 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.4262462613360872e-06</v>
+        <v>1.8038559083042069e-06</v>
       </c>
       <c r="C122">
-        <v>0.94690447294058733</v>
+        <v>0.96779867743455195</v>
       </c>
       <c r="D122">
-        <v>0.037774680288404666</v>
+        <v>0.023655473824830752</v>
       </c>
       <c r="E122">
-        <v>0.014742181407615707</v>
+        <v>0.0083287011678124506</v>
       </c>
       <c r="F122">
-        <v>0.00057623911713093634</v>
+        <v>0.00021534371689662697</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -4075,19 +4099,19 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3.3048863103254728e-06</v>
+        <v>5.619100959664366e-09</v>
       </c>
       <c r="C123">
-        <v>0.87726413499525036</v>
+        <v>0.99091369157266085</v>
       </c>
       <c r="D123">
-        <v>0.1173538359114057</v>
+        <v>1.9304601197587122e-06</v>
       </c>
       <c r="E123">
-        <v>0.0053184967384387856</v>
+        <v>0.0086245823354986501</v>
       </c>
       <c r="F123">
-        <v>6.0227468594968632e-05</v>
+        <v>0.00045979001261994991</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -4098,22 +4122,22 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.000310643923639784</v>
+        <v>3.0508870727575342e-05</v>
       </c>
       <c r="C124">
-        <v>0.00049789674662614129</v>
+        <v>0.95267937117937351</v>
       </c>
       <c r="D124">
-        <v>0.00028049272890238563</v>
+        <v>0.025055805160774467</v>
       </c>
       <c r="E124">
-        <v>0.0011542682048570592</v>
+        <v>0.021676555869192708</v>
       </c>
       <c r="F124">
-        <v>0.99775669839597469</v>
+        <v>0.00055775891993177474</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -4121,22 +4145,22 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.00023193054641859211</v>
+        <v>7.7584606600514795e-05</v>
       </c>
       <c r="C125">
-        <v>2.2007462348004244e-05</v>
+        <v>0.98052663208752833</v>
       </c>
       <c r="D125">
-        <v>0.9958588511868266</v>
+        <v>0.010104578493462834</v>
       </c>
       <c r="E125">
-        <v>0.0038191714096526526</v>
+        <v>0.0091161048597349758</v>
       </c>
       <c r="F125">
-        <v>6.8039394754006464e-05</v>
+        <v>0.00017509995267340494</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -4144,19 +4168,19 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.00046678609692773706</v>
+        <v>0.0014905532648277595</v>
       </c>
       <c r="C126">
-        <v>0.94875388261768445</v>
+        <v>0.91249320664472189</v>
       </c>
       <c r="D126">
-        <v>0.030206925166668726</v>
+        <v>0.05531849491814627</v>
       </c>
       <c r="E126">
-        <v>0.017920678294506442</v>
+        <v>0.028598083179236424</v>
       </c>
       <c r="F126">
-        <v>0.0026517278242128147</v>
+        <v>0.0020996619930677353</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -4167,22 +4191,22 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>6.4878597605503875e-06</v>
+        <v>2.4262462613360872e-06</v>
       </c>
       <c r="C127">
-        <v>0.00030521366651385201</v>
+        <v>0.94690447294058733</v>
       </c>
       <c r="D127">
-        <v>0.0075526125183542573</v>
+        <v>0.037774680288404666</v>
       </c>
       <c r="E127">
-        <v>0.00098730706739418917</v>
+        <v>0.014742181407615707</v>
       </c>
       <c r="F127">
-        <v>0.99114837888797713</v>
+        <v>0.00057623911713093634</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -4190,19 +4214,19 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>5.1682664016765258e-06</v>
+        <v>3.3048863103254728e-06</v>
       </c>
       <c r="C128">
-        <v>0.94771903791056045</v>
+        <v>0.87726413499525036</v>
       </c>
       <c r="D128">
-        <v>0.031944734750640622</v>
+        <v>0.1173538359114057</v>
       </c>
       <c r="E128">
-        <v>0.020137792600251447</v>
+        <v>0.0053184967384387856</v>
       </c>
       <c r="F128">
-        <v>0.00019326647214580354</v>
+        <v>6.0227468594968632e-05</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -4213,22 +4237,22 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3.293905544092393e-05</v>
+        <v>0.000310643923639784</v>
       </c>
       <c r="C129">
-        <v>0.97178166644525776</v>
+        <v>0.00049789674662614129</v>
       </c>
       <c r="D129">
-        <v>0.010504757302879105</v>
+        <v>0.00028049272890238563</v>
       </c>
       <c r="E129">
-        <v>0.016680842940803547</v>
+        <v>0.0011542682048570592</v>
       </c>
       <c r="F129">
-        <v>0.00099979425561858471</v>
+        <v>0.99775669839597469</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -4236,22 +4260,22 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.0023927948507212098</v>
+        <v>0.00023193054641859211</v>
       </c>
       <c r="C130">
-        <v>0.89054944400763103</v>
+        <v>2.2007462348004244e-05</v>
       </c>
       <c r="D130">
-        <v>0.092880934018705077</v>
+        <v>0.9958588511868266</v>
       </c>
       <c r="E130">
-        <v>0.013966479539716095</v>
+        <v>0.0038191714096526526</v>
       </c>
       <c r="F130">
-        <v>0.00021034758322647953</v>
+        <v>6.8039394754006464e-05</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -4259,19 +4283,19 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>9.6786448265456714e-05</v>
+        <v>0.00046678609692773706</v>
       </c>
       <c r="C131">
-        <v>0.95223086827882797</v>
+        <v>0.94875388261768445</v>
       </c>
       <c r="D131">
-        <v>0.017405575913236895</v>
+        <v>0.030206925166668726</v>
       </c>
       <c r="E131">
-        <v>0.027456858406365907</v>
+        <v>0.017920678294506442</v>
       </c>
       <c r="F131">
-        <v>0.0028099109533037858</v>
+        <v>0.0026517278242128147</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -4282,22 +4306,22 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>8.1703020896717191e-05</v>
+        <v>6.4878597605503875e-06</v>
       </c>
       <c r="C132">
-        <v>0.98093812956968174</v>
+        <v>0.00030521366651385201</v>
       </c>
       <c r="D132">
-        <v>0.010663552440502724</v>
+        <v>0.0075526125183542573</v>
       </c>
       <c r="E132">
-        <v>0.0081982649070637594</v>
+        <v>0.00098730706739418917</v>
       </c>
       <c r="F132">
-        <v>0.00011835006185512697</v>
+        <v>0.99114837888797713</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -4305,19 +4329,19 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1.7839298278024672e-08</v>
+        <v>5.1682664016765258e-06</v>
       </c>
       <c r="C133">
-        <v>0.99504018644379932</v>
+        <v>0.94771903791056045</v>
       </c>
       <c r="D133">
-        <v>8.7735799280883805e-06</v>
+        <v>0.031944734750640622</v>
       </c>
       <c r="E133">
-        <v>0.0047841906562657646</v>
+        <v>0.020137792600251447</v>
       </c>
       <c r="F133">
-        <v>0.00016683148070866774</v>
+        <v>0.00019326647214580354</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -4328,19 +4352,19 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2.8944244862675749e-05</v>
+        <v>3.293905544092393e-05</v>
       </c>
       <c r="C134">
-        <v>0.84911830213545014</v>
+        <v>0.97178166644525776</v>
       </c>
       <c r="D134">
-        <v>0.13904833262026509</v>
+        <v>0.010504757302879105</v>
       </c>
       <c r="E134">
-        <v>0.011383321345281749</v>
+        <v>0.016680842940803547</v>
       </c>
       <c r="F134">
-        <v>0.00042109965414040463</v>
+        <v>0.00099979425561858471</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -4351,19 +4375,19 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1.0423665137085172e-07</v>
+        <v>0.0023927948507212098</v>
       </c>
       <c r="C135">
-        <v>0.99452060692503308</v>
+        <v>0.89054944400763103</v>
       </c>
       <c r="D135">
-        <v>2.1582749104544433e-06</v>
+        <v>0.092880934018705077</v>
       </c>
       <c r="E135">
-        <v>0.0052078535821587744</v>
+        <v>0.013966479539716095</v>
       </c>
       <c r="F135">
-        <v>0.00026927698124638204</v>
+        <v>0.00021034758322647953</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -4374,19 +4398,19 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>4.3601077309896167e-05</v>
+        <v>9.6786448265456714e-05</v>
       </c>
       <c r="C136">
-        <v>0.93946073946258135</v>
+        <v>0.95223086827882797</v>
       </c>
       <c r="D136">
-        <v>0.051012720857057041</v>
+        <v>0.017405575913236895</v>
       </c>
       <c r="E136">
-        <v>0.0089715766077928579</v>
+        <v>0.027456858406365907</v>
       </c>
       <c r="F136">
-        <v>0.00051136199525885385</v>
+        <v>0.0028099109533037858</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -4397,19 +4421,19 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.00014735462891864092</v>
+        <v>8.1703020896717191e-05</v>
       </c>
       <c r="C137">
-        <v>0.89278470907470531</v>
+        <v>0.98093812956968174</v>
       </c>
       <c r="D137">
-        <v>0.07254007178504808</v>
+        <v>0.010663552440502724</v>
       </c>
       <c r="E137">
-        <v>0.032915712669425459</v>
+        <v>0.0081982649070637594</v>
       </c>
       <c r="F137">
-        <v>0.0016121518419024612</v>
+        <v>0.00011835006185512697</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -4420,19 +4444,19 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1.2685043861880558e-05</v>
+        <v>1.7839298278024672e-08</v>
       </c>
       <c r="C138">
-        <v>0.90947241050252126</v>
+        <v>0.99504018644379932</v>
       </c>
       <c r="D138">
-        <v>0.075715622266747454</v>
+        <v>8.7735799280883805e-06</v>
       </c>
       <c r="E138">
-        <v>0.013306749087501757</v>
+        <v>0.0047841906562657646</v>
       </c>
       <c r="F138">
-        <v>0.0014925330993677806</v>
+        <v>0.00016683148070866774</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -4443,22 +4467,22 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2.6988171415881851e-05</v>
+        <v>2.8944244862675749e-05</v>
       </c>
       <c r="C139">
-        <v>8.9166692886590124e-05</v>
+        <v>0.84911830213545014</v>
       </c>
       <c r="D139">
-        <v>5.4716941342971084e-05</v>
+        <v>0.13904833262026509</v>
       </c>
       <c r="E139">
-        <v>0.005904415862025821</v>
+        <v>0.011383321345281749</v>
       </c>
       <c r="F139">
-        <v>0.99392471233232882</v>
+        <v>0.00042109965414040463</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4466,19 +4490,19 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1.3020058939104493e-05</v>
+        <v>1.0423665137085172e-07</v>
       </c>
       <c r="C140">
-        <v>0.81968662050167851</v>
+        <v>0.99452060692503308</v>
       </c>
       <c r="D140">
-        <v>0.16646758127805547</v>
+        <v>2.1582749104544433e-06</v>
       </c>
       <c r="E140">
-        <v>0.01281783420101739</v>
+        <v>0.0052078535821587744</v>
       </c>
       <c r="F140">
-        <v>0.0010149439603095785</v>
+        <v>0.00026927698124638204</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -4489,19 +4513,19 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1.3825801165878192e-06</v>
+        <v>4.3601077309896167e-05</v>
       </c>
       <c r="C141">
-        <v>0.95836557457374882</v>
+        <v>0.93946073946258135</v>
       </c>
       <c r="D141">
-        <v>0.029902464604123363</v>
+        <v>0.051012720857057041</v>
       </c>
       <c r="E141">
-        <v>0.011564705904789347</v>
+        <v>0.0089715766077928579</v>
       </c>
       <c r="F141">
-        <v>0.00016587233722189625</v>
+        <v>0.00051136199525885385</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -4512,19 +4536,19 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.0020461839283605729</v>
+        <v>0.00014735462891864092</v>
       </c>
       <c r="C142">
-        <v>0.65054881476721582</v>
+        <v>0.89278470907470531</v>
       </c>
       <c r="D142">
-        <v>0.2904390255472965</v>
+        <v>0.07254007178504808</v>
       </c>
       <c r="E142">
-        <v>0.015944475835964634</v>
+        <v>0.032915712669425459</v>
       </c>
       <c r="F142">
-        <v>0.041021499921162406</v>
+        <v>0.0016121518419024612</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -4535,22 +4559,22 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.00076542454276488795</v>
+        <v>1.2685043861880558e-05</v>
       </c>
       <c r="C143">
-        <v>0.0049538289042928832</v>
+        <v>0.90947241050252126</v>
       </c>
       <c r="D143">
-        <v>0.87593676902594131</v>
+        <v>0.075715622266747454</v>
       </c>
       <c r="E143">
-        <v>0.010389763415691471</v>
+        <v>0.013306749087501757</v>
       </c>
       <c r="F143">
-        <v>0.10795421411130945</v>
+        <v>0.0014925330993677806</v>
       </c>
       <c r="G143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4558,22 +4582,22 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.015127207593422939</v>
+        <v>2.6988171415881851e-05</v>
       </c>
       <c r="C144">
-        <v>0.7765063936624178</v>
+        <v>8.9166692886590124e-05</v>
       </c>
       <c r="D144">
-        <v>0.16242883257046184</v>
+        <v>5.4716941342971084e-05</v>
       </c>
       <c r="E144">
-        <v>0.044758656280467927</v>
+        <v>0.005904415862025821</v>
       </c>
       <c r="F144">
-        <v>0.0011789098932295068</v>
+        <v>0.99392471233232882</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -4581,19 +4605,19 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.6487272289821238e-05</v>
+        <v>1.3020058939104493e-05</v>
       </c>
       <c r="C145">
-        <v>0.97463453876795414</v>
+        <v>0.81968662050167851</v>
       </c>
       <c r="D145">
-        <v>0.010158723091101168</v>
+        <v>0.16646758127805547</v>
       </c>
       <c r="E145">
-        <v>0.012730587656528144</v>
+        <v>0.01281783420101739</v>
       </c>
       <c r="F145">
-        <v>0.0024596632121267237</v>
+        <v>0.0010149439603095785</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -4604,19 +4628,19 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.00053286227374643204</v>
+        <v>1.3825801165878192e-06</v>
       </c>
       <c r="C146">
-        <v>0.90815136667754814</v>
+        <v>0.95836557457374882</v>
       </c>
       <c r="D146">
-        <v>0.032152892906603114</v>
+        <v>0.029902464604123363</v>
       </c>
       <c r="E146">
-        <v>0.040870693226500075</v>
+        <v>0.011564705904789347</v>
       </c>
       <c r="F146">
-        <v>0.018292184915602402</v>
+        <v>0.00016587233722189625</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -4627,19 +4651,19 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>8.0924706508995038e-05</v>
+        <v>0.0020461839283605729</v>
       </c>
       <c r="C147">
-        <v>0.9762111974894464</v>
+        <v>0.65054881476721582</v>
       </c>
       <c r="D147">
-        <v>0.013080021137230209</v>
+        <v>0.2904390255472965</v>
       </c>
       <c r="E147">
-        <v>0.010199273734759222</v>
+        <v>0.015944475835964634</v>
       </c>
       <c r="F147">
-        <v>0.0004285829320550996</v>
+        <v>0.041021499921162406</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -4650,22 +4674,22 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.947387468274436e-07</v>
+        <v>0.00076542454276488795</v>
       </c>
       <c r="C148">
-        <v>0.99232671770620196</v>
+        <v>0.0049538289042928832</v>
       </c>
       <c r="D148">
-        <v>7.65950486732622e-07</v>
+        <v>0.87593676902594131</v>
       </c>
       <c r="E148">
-        <v>0.0071388435825509109</v>
+        <v>0.010389763415691471</v>
       </c>
       <c r="F148">
-        <v>0.00053347802201344249</v>
+        <v>0.10795421411130945</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -4673,19 +4697,19 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.0025543899007617675</v>
+        <v>0.015127207593422939</v>
       </c>
       <c r="C149">
-        <v>0.63505442188870687</v>
+        <v>0.7765063936624178</v>
       </c>
       <c r="D149">
-        <v>0.31637200009933336</v>
+        <v>0.16242883257046184</v>
       </c>
       <c r="E149">
-        <v>0.03617153830791222</v>
+        <v>0.044758656280467927</v>
       </c>
       <c r="F149">
-        <v>0.0098476498032860384</v>
+        <v>0.0011789098932295068</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -4696,19 +4720,19 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.00019390565630137451</v>
+        <v>1.6487272289821238e-05</v>
       </c>
       <c r="C150">
-        <v>0.98075152832831292</v>
+        <v>0.97463453876795414</v>
       </c>
       <c r="D150">
-        <v>0.0031720723967926532</v>
+        <v>0.010158723091101168</v>
       </c>
       <c r="E150">
-        <v>0.015440975295953493</v>
+        <v>0.012730587656528144</v>
       </c>
       <c r="F150">
-        <v>0.00044151832263970354</v>
+        <v>0.0024596632121267237</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -4719,19 +4743,19 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.00092516578057240503</v>
+        <v>0.00053286227374643204</v>
       </c>
       <c r="C151">
-        <v>0.96358854462116372</v>
+        <v>0.90815136667754814</v>
       </c>
       <c r="D151">
-        <v>0.0053824061852020865</v>
+        <v>0.032152892906603114</v>
       </c>
       <c r="E151">
-        <v>0.022979823867203944</v>
+        <v>0.040870693226500075</v>
       </c>
       <c r="F151">
-        <v>0.0071240595458579277</v>
+        <v>0.018292184915602402</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -4742,19 +4766,19 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.00019023557903833697</v>
+        <v>8.0924706508995038e-05</v>
       </c>
       <c r="C152">
-        <v>0.94581736768671876</v>
+        <v>0.9762111974894464</v>
       </c>
       <c r="D152">
-        <v>0.035029002924643927</v>
+        <v>0.013080021137230209</v>
       </c>
       <c r="E152">
-        <v>0.014927115248614094</v>
+        <v>0.010199273734759222</v>
       </c>
       <c r="F152">
-        <v>0.0040362785609849459</v>
+        <v>0.0004285829320550996</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -4765,19 +4789,19 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.4612541812651423e-06</v>
+        <v>1.947387468274436e-07</v>
       </c>
       <c r="C153">
-        <v>0.99141404826409418</v>
+        <v>0.99232671770620196</v>
       </c>
       <c r="D153">
-        <v>4.1041202447368725e-06</v>
+        <v>7.65950486732622e-07</v>
       </c>
       <c r="E153">
-        <v>0.0065907373470116886</v>
+        <v>0.0071388435825509109</v>
       </c>
       <c r="F153">
-        <v>0.0019896490144682079</v>
+        <v>0.00053347802201344249</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -4788,19 +4812,19 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2.1408533808911183e-05</v>
+        <v>0.0025543899007617675</v>
       </c>
       <c r="C154">
-        <v>0.94727489948869847</v>
+        <v>0.63505442188870687</v>
       </c>
       <c r="D154">
-        <v>0.041862942857378911</v>
+        <v>0.31637200009933336</v>
       </c>
       <c r="E154">
-        <v>0.010617327730717272</v>
+        <v>0.03617153830791222</v>
       </c>
       <c r="F154">
-        <v>0.00022342138939648504</v>
+        <v>0.0098476498032860384</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -4811,22 +4835,22 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.004878797076823347</v>
+        <v>0.00019390565630137451</v>
       </c>
       <c r="C155">
-        <v>0.37725956568070085</v>
+        <v>0.98075152832831292</v>
       </c>
       <c r="D155">
-        <v>0.46668819712212362</v>
+        <v>0.0031720723967926532</v>
       </c>
       <c r="E155">
-        <v>0.018973042072317717</v>
+        <v>0.015440975295953493</v>
       </c>
       <c r="F155">
-        <v>0.13220039804803449</v>
+        <v>0.00044151832263970354</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -4834,19 +4858,19 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.00014443109511393421</v>
+        <v>0.00092516578057240503</v>
       </c>
       <c r="C156">
-        <v>0.94084202249563409</v>
+        <v>0.96358854462116372</v>
       </c>
       <c r="D156">
-        <v>0.048884000567027235</v>
+        <v>0.0053824061852020865</v>
       </c>
       <c r="E156">
-        <v>0.0097645214895761678</v>
+        <v>0.022979823867203944</v>
       </c>
       <c r="F156">
-        <v>0.00036502435264850592</v>
+        <v>0.0071240595458579277</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -4857,19 +4881,19 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2.1086585760773004e-05</v>
+        <v>0.00019023557903833697</v>
       </c>
       <c r="C157">
-        <v>0.97333805242797333</v>
+        <v>0.94581736768671876</v>
       </c>
       <c r="D157">
-        <v>0.012806695351291414</v>
+        <v>0.035029002924643927</v>
       </c>
       <c r="E157">
-        <v>0.013224047672471984</v>
+        <v>0.014927115248614094</v>
       </c>
       <c r="F157">
-        <v>0.00061011796250242387</v>
+        <v>0.0040362785609849459</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -4880,22 +4904,22 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.0012751697557398631</v>
+        <v>1.4612541812651423e-06</v>
       </c>
       <c r="C158">
-        <v>0.0029377757962336794</v>
+        <v>0.99141404826409418</v>
       </c>
       <c r="D158">
-        <v>0.00014046752470773957</v>
+        <v>4.1041202447368725e-06</v>
       </c>
       <c r="E158">
-        <v>0.0048723649413596627</v>
+        <v>0.0065907373470116886</v>
       </c>
       <c r="F158">
-        <v>0.99077422198195908</v>
+        <v>0.0019896490144682079</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4903,19 +4927,19 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4.0591514545215753e-05</v>
+        <v>2.1408533808911183e-05</v>
       </c>
       <c r="C159">
-        <v>0.96135685498414636</v>
+        <v>0.94727489948869847</v>
       </c>
       <c r="D159">
-        <v>0.030257985226167433</v>
+        <v>0.041862942857378911</v>
       </c>
       <c r="E159">
-        <v>0.008153709882415431</v>
+        <v>0.010617327730717272</v>
       </c>
       <c r="F159">
-        <v>0.00019085839272555029</v>
+        <v>0.00022342138939648504</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -4926,22 +4950,22 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.0010243359582702066</v>
+        <v>0.004878797076823347</v>
       </c>
       <c r="C160">
-        <v>0.94667958064057778</v>
+        <v>0.37725956568070085</v>
       </c>
       <c r="D160">
-        <v>0.023198747455560668</v>
+        <v>0.46668819712212362</v>
       </c>
       <c r="E160">
-        <v>0.024841916682361704</v>
+        <v>0.018973042072317717</v>
       </c>
       <c r="F160">
-        <v>0.0042554192632298093</v>
+        <v>0.13220039804803449</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -4949,19 +4973,19 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2.9650005541296011e-05</v>
+        <v>0.00014443109511393421</v>
       </c>
       <c r="C161">
-        <v>0.93905525606756868</v>
+        <v>0.94084202249563409</v>
       </c>
       <c r="D161">
-        <v>0.051233025658214824</v>
+        <v>0.048884000567027235</v>
       </c>
       <c r="E161">
-        <v>0.0086351646722578716</v>
+        <v>0.0097645214895761678</v>
       </c>
       <c r="F161">
-        <v>0.0010469035964174071</v>
+        <v>0.00036502435264850592</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -4972,19 +4996,19 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.00021621960497272651</v>
+        <v>2.1086585760773004e-05</v>
       </c>
       <c r="C162">
-        <v>0.90799169177039063</v>
+        <v>0.97333805242797333</v>
       </c>
       <c r="D162">
-        <v>0.056890895009507648</v>
+        <v>0.012806695351291414</v>
       </c>
       <c r="E162">
-        <v>0.033132490422827621</v>
+        <v>0.013224047672471984</v>
       </c>
       <c r="F162">
-        <v>0.0017687031923014226</v>
+        <v>0.00061011796250242387</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -4995,22 +5019,22 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>9.5381237873285102e-05</v>
+        <v>0.0012751697557398631</v>
       </c>
       <c r="C163">
-        <v>0.9382347923652119</v>
+        <v>0.0029377757962336794</v>
       </c>
       <c r="D163">
-        <v>0.035119348459457467</v>
+        <v>0.00014046752470773957</v>
       </c>
       <c r="E163">
-        <v>0.02609274007408648</v>
+        <v>0.0048723649413596627</v>
       </c>
       <c r="F163">
-        <v>0.00045773786337103168</v>
+        <v>0.99077422198195908</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
@@ -5018,19 +5042,19 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.0003265132825862837</v>
+        <v>4.0591514545215753e-05</v>
       </c>
       <c r="C164">
-        <v>0.93998016510546178</v>
+        <v>0.96135685498414636</v>
       </c>
       <c r="D164">
-        <v>0.040963682027724935</v>
+        <v>0.030257985226167433</v>
       </c>
       <c r="E164">
-        <v>0.01851356767275834</v>
+        <v>0.008153709882415431</v>
       </c>
       <c r="F164">
-        <v>0.00021607191146880196</v>
+        <v>0.00019085839272555029</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -5041,19 +5065,19 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.0030857547643990068</v>
+        <v>0.0010243359582702066</v>
       </c>
       <c r="C165">
-        <v>0.93068027043145696</v>
+        <v>0.94667958064057778</v>
       </c>
       <c r="D165">
-        <v>0.047694080223241599</v>
+        <v>0.023198747455560668</v>
       </c>
       <c r="E165">
-        <v>0.017065237575648737</v>
+        <v>0.024841916682361704</v>
       </c>
       <c r="F165">
-        <v>0.001474657005253732</v>
+        <v>0.0042554192632298093</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -5064,19 +5088,19 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>8.9950222272944114e-06</v>
+        <v>2.9650005541296011e-05</v>
       </c>
       <c r="C166">
-        <v>0.86860837370391952</v>
+        <v>0.93905525606756868</v>
       </c>
       <c r="D166">
-        <v>0.11484507996442048</v>
+        <v>0.051233025658214824</v>
       </c>
       <c r="E166">
-        <v>0.015850106550150851</v>
+        <v>0.0086351646722578716</v>
       </c>
       <c r="F166">
-        <v>0.00068744475928173064</v>
+        <v>0.0010469035964174071</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -5087,19 +5111,19 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.00017669123516144696</v>
+        <v>0.00021621960497272651</v>
       </c>
       <c r="C167">
-        <v>0.71384560231020122</v>
+        <v>0.90799169177039063</v>
       </c>
       <c r="D167">
-        <v>0.27111348602464846</v>
+        <v>0.056890895009507648</v>
       </c>
       <c r="E167">
-        <v>0.014646930705533407</v>
+        <v>0.033132490422827621</v>
       </c>
       <c r="F167">
-        <v>0.00021728972445548401</v>
+        <v>0.0017687031923014226</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -5110,19 +5134,19 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2.7037835924518847e-05</v>
+        <v>9.5381237873285102e-05</v>
       </c>
       <c r="C168">
-        <v>0.87774268601825134</v>
+        <v>0.9382347923652119</v>
       </c>
       <c r="D168">
-        <v>0.10657207476015089</v>
+        <v>0.035119348459457467</v>
       </c>
       <c r="E168">
-        <v>0.015210322233291941</v>
+        <v>0.02609274007408648</v>
       </c>
       <c r="F168">
-        <v>0.00044787915238124433</v>
+        <v>0.00045773786337103168</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -5133,19 +5157,19 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7.2908948040671765e-05</v>
+        <v>0.0003265132825862837</v>
       </c>
       <c r="C169">
-        <v>0.96005732286259726</v>
+        <v>0.93998016510546178</v>
       </c>
       <c r="D169">
-        <v>0.026919703805760354</v>
+        <v>0.040963682027724935</v>
       </c>
       <c r="E169">
-        <v>0.012599239617039808</v>
+        <v>0.01851356767275834</v>
       </c>
       <c r="F169">
-        <v>0.0003508247665619281</v>
+        <v>0.00021607191146880196</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -5156,19 +5180,19 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.00044868065865383825</v>
+        <v>0.0030857547643990068</v>
       </c>
       <c r="C170">
-        <v>0.96943477500147801</v>
+        <v>0.93068027043145696</v>
       </c>
       <c r="D170">
-        <v>0.015298815275714604</v>
+        <v>0.047694080223241599</v>
       </c>
       <c r="E170">
-        <v>0.014512660263340227</v>
+        <v>0.017065237575648737</v>
       </c>
       <c r="F170">
-        <v>0.00030506880081339615</v>
+        <v>0.001474657005253732</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -5179,19 +5203,19 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>4.5235121910486768e-05</v>
+        <v>8.9950222272944114e-06</v>
       </c>
       <c r="C171">
-        <v>0.93481748681961296</v>
+        <v>0.86860837370391952</v>
       </c>
       <c r="D171">
-        <v>0.048435000285987628</v>
+        <v>0.11484507996442048</v>
       </c>
       <c r="E171">
-        <v>0.015720152482495114</v>
+        <v>0.015850106550150851</v>
       </c>
       <c r="F171">
-        <v>0.00098212528999376786</v>
+        <v>0.00068744475928173064</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -5202,19 +5226,19 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.00030559151086848594</v>
+        <v>0.00017669123516144696</v>
       </c>
       <c r="C172">
-        <v>0.93767157766081388</v>
+        <v>0.71384560231020122</v>
       </c>
       <c r="D172">
-        <v>0.050596518486726541</v>
+        <v>0.27111348602464846</v>
       </c>
       <c r="E172">
-        <v>0.010831347861014426</v>
+        <v>0.014646930705533407</v>
       </c>
       <c r="F172">
-        <v>0.00059496448057667721</v>
+        <v>0.00021728972445548401</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -5225,19 +5249,19 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>3.388144164665601e-05</v>
+        <v>2.7037835924518847e-05</v>
       </c>
       <c r="C173">
-        <v>0.95412737844739548</v>
+        <v>0.87774268601825134</v>
       </c>
       <c r="D173">
-        <v>0.026884040502434554</v>
+        <v>0.10657207476015089</v>
       </c>
       <c r="E173">
-        <v>0.017930764414399603</v>
+        <v>0.015210322233291941</v>
       </c>
       <c r="F173">
-        <v>0.00102393519412367</v>
+        <v>0.00044787915238124433</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -5248,19 +5272,19 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.00022212046962788201</v>
+        <v>7.2908948040671765e-05</v>
       </c>
       <c r="C174">
-        <v>0.83380289984960343</v>
+        <v>0.96005732286259726</v>
       </c>
       <c r="D174">
-        <v>0.12100379787594059</v>
+        <v>0.026919703805760354</v>
       </c>
       <c r="E174">
-        <v>0.042026807146968152</v>
+        <v>0.012599239617039808</v>
       </c>
       <c r="F174">
-        <v>0.0029443746578599471</v>
+        <v>0.0003508247665619281</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -5271,19 +5295,19 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>3.388144164665601e-05</v>
+        <v>0.00044868065865383825</v>
       </c>
       <c r="C175">
-        <v>0.95412737844739548</v>
+        <v>0.96943477500147801</v>
       </c>
       <c r="D175">
-        <v>0.026884040502434554</v>
+        <v>0.015298815275714604</v>
       </c>
       <c r="E175">
-        <v>0.017930764414399603</v>
+        <v>0.014512660263340227</v>
       </c>
       <c r="F175">
-        <v>0.00102393519412367</v>
+        <v>0.00030506880081339615</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -5294,19 +5318,19 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.00037308198233711913</v>
+        <v>4.5235121910486768e-05</v>
       </c>
       <c r="C176">
-        <v>0.83485164109518828</v>
+        <v>0.93481748681961296</v>
       </c>
       <c r="D176">
-        <v>0.12705406407724096</v>
+        <v>0.048435000285987628</v>
       </c>
       <c r="E176">
-        <v>0.032442739938054799</v>
+        <v>0.015720152482495114</v>
       </c>
       <c r="F176">
-        <v>0.0052784729071787342</v>
+        <v>0.00098212528999376786</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -5317,19 +5341,19 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1.8213433892996188e-05</v>
+        <v>0.00030559151086848594</v>
       </c>
       <c r="C177">
-        <v>0.90698516538739238</v>
+        <v>0.93767157766081388</v>
       </c>
       <c r="D177">
-        <v>0.087209126454916769</v>
+        <v>0.050596518486726541</v>
       </c>
       <c r="E177">
-        <v>0.0056788799842932844</v>
+        <v>0.010831347861014426</v>
       </c>
       <c r="F177">
-        <v>0.00010861473950460799</v>
+        <v>0.00059496448057667721</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -5340,19 +5364,19 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>5.8636950908167426e-08</v>
+        <v>3.388144164665601e-05</v>
       </c>
       <c r="C178">
-        <v>0.9940634600419852</v>
+        <v>0.95412737844739548</v>
       </c>
       <c r="D178">
-        <v>2.0462331853180554e-06</v>
+        <v>0.026884040502434554</v>
       </c>
       <c r="E178">
-        <v>0.0052160508458356245</v>
+        <v>0.017930764414399603</v>
       </c>
       <c r="F178">
-        <v>0.0007183842420430144</v>
+        <v>0.00102393519412367</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -5363,22 +5387,22 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1.1641904019150902e-06</v>
+        <v>0.00022212046962788201</v>
       </c>
       <c r="C179">
-        <v>0.00061907645413281055</v>
+        <v>0.83380289984960343</v>
       </c>
       <c r="D179">
-        <v>0.029580770099490266</v>
+        <v>0.12100379787594059</v>
       </c>
       <c r="E179">
-        <v>0.011899754960048966</v>
+        <v>0.042026807146968152</v>
       </c>
       <c r="F179">
-        <v>0.95789923429592605</v>
+        <v>0.0029443746578599471</v>
       </c>
       <c r="G179">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5386,19 +5410,19 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7.1495886043107746e-05</v>
+        <v>3.388144164665601e-05</v>
       </c>
       <c r="C180">
-        <v>0.91871706950622134</v>
+        <v>0.95412737844739548</v>
       </c>
       <c r="D180">
-        <v>0.058796709419665076</v>
+        <v>0.026884040502434554</v>
       </c>
       <c r="E180">
-        <v>0.021252224079020672</v>
+        <v>0.017930764414399603</v>
       </c>
       <c r="F180">
-        <v>0.001162501109049879</v>
+        <v>0.00102393519412367</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -5409,19 +5433,19 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>8.0529359449116482e-05</v>
+        <v>0.00037308198233711913</v>
       </c>
       <c r="C181">
-        <v>0.97769327270693474</v>
+        <v>0.83485164109518828</v>
       </c>
       <c r="D181">
-        <v>0.014661879663236881</v>
+        <v>0.12705406407724096</v>
       </c>
       <c r="E181">
-        <v>0.0074046828232351052</v>
+        <v>0.032442739938054799</v>
       </c>
       <c r="F181">
-        <v>0.00015963544714431418</v>
+        <v>0.0052784729071787342</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -5432,19 +5456,19 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2.7153089207387688e-05</v>
+        <v>1.8213433892996188e-05</v>
       </c>
       <c r="C182">
-        <v>0.92186466888709206</v>
+        <v>0.90698516538739238</v>
       </c>
       <c r="D182">
-        <v>0.074229839785004637</v>
+        <v>0.087209126454916769</v>
       </c>
       <c r="E182">
-        <v>0.0035076966808952393</v>
+        <v>0.0056788799842932844</v>
       </c>
       <c r="F182">
-        <v>0.00037064155780055017</v>
+        <v>0.00010861473950460799</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -5455,19 +5479,19 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.00017896449652778131</v>
+        <v>5.8636950908167426e-08</v>
       </c>
       <c r="C183">
-        <v>0.87596065340557883</v>
+        <v>0.9940634600419852</v>
       </c>
       <c r="D183">
-        <v>0.084960558797181465</v>
+        <v>2.0462331853180554e-06</v>
       </c>
       <c r="E183">
-        <v>0.035417910276423936</v>
+        <v>0.0052160508458356245</v>
       </c>
       <c r="F183">
-        <v>0.0034819130242881176</v>
+        <v>0.0007183842420430144</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -5478,22 +5502,22 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>8.499827576086987e-05</v>
+        <v>1.1641904019150902e-06</v>
       </c>
       <c r="C184">
-        <v>0.85248596508175056</v>
+        <v>0.00061907645413281055</v>
       </c>
       <c r="D184">
-        <v>0.13581415560247903</v>
+        <v>0.029580770099490266</v>
       </c>
       <c r="E184">
-        <v>0.011074031102910388</v>
+        <v>0.011899754960048966</v>
       </c>
       <c r="F184">
-        <v>0.00054084993709911352</v>
+        <v>0.95789923429592605</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
@@ -5501,19 +5525,19 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>5.5272871221326875e-05</v>
+        <v>7.1495886043107746e-05</v>
       </c>
       <c r="C185">
-        <v>0.9697244764469467</v>
+        <v>0.91871706950622134</v>
       </c>
       <c r="D185">
-        <v>0.014672210279751956</v>
+        <v>0.058796709419665076</v>
       </c>
       <c r="E185">
-        <v>0.01382832765141177</v>
+        <v>0.021252224079020672</v>
       </c>
       <c r="F185">
-        <v>0.0017197127506681602</v>
+        <v>0.001162501109049879</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -5524,22 +5548,22 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.00046027765657485106</v>
+        <v>8.0529359449116482e-05</v>
       </c>
       <c r="C186">
-        <v>0.02048605560724804</v>
+        <v>0.97769327270693474</v>
       </c>
       <c r="D186">
-        <v>0.86934622654887428</v>
+        <v>0.014661879663236881</v>
       </c>
       <c r="E186">
-        <v>0.018059515082633516</v>
+        <v>0.0074046828232351052</v>
       </c>
       <c r="F186">
-        <v>0.091647925104669403</v>
+        <v>0.00015963544714431418</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -5547,19 +5571,19 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.00028690213670220604</v>
+        <v>2.7153089207387688e-05</v>
       </c>
       <c r="C187">
-        <v>0.79037976002683985</v>
+        <v>0.92186466888709206</v>
       </c>
       <c r="D187">
-        <v>0.15572325049263724</v>
+        <v>0.074229839785004637</v>
       </c>
       <c r="E187">
-        <v>0.019221148861183188</v>
+        <v>0.0035076966808952393</v>
       </c>
       <c r="F187">
-        <v>0.034388938482637514</v>
+        <v>0.00037064155780055017</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -5570,19 +5594,19 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>4.7390380277397129e-05</v>
+        <v>0.00017896449652778131</v>
       </c>
       <c r="C188">
-        <v>0.88714229106259501</v>
+        <v>0.87596065340557883</v>
       </c>
       <c r="D188">
-        <v>0.10742664231070068</v>
+        <v>0.084960558797181465</v>
       </c>
       <c r="E188">
-        <v>0.0051867077160758068</v>
+        <v>0.035417910276423936</v>
       </c>
       <c r="F188">
-        <v>0.0001969685303509901</v>
+        <v>0.0034819130242881176</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -5593,19 +5617,19 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>5.4083634706109099e-05</v>
+        <v>8.499827576086987e-05</v>
       </c>
       <c r="C189">
-        <v>0.98590391192352711</v>
+        <v>0.85248596508175056</v>
       </c>
       <c r="D189">
-        <v>0.0030240644322032852</v>
+        <v>0.13581415560247903</v>
       </c>
       <c r="E189">
-        <v>0.010685435030905955</v>
+        <v>0.011074031102910388</v>
       </c>
       <c r="F189">
-        <v>0.0003325049786574711</v>
+        <v>0.00054084993709911352</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -5616,19 +5640,19 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.0002979304037257229</v>
+        <v>5.5272871221326875e-05</v>
       </c>
       <c r="C190">
-        <v>0.94945649191029113</v>
+        <v>0.9697244764469467</v>
       </c>
       <c r="D190">
-        <v>0.037501701885880846</v>
+        <v>0.014672210279751956</v>
       </c>
       <c r="E190">
-        <v>0.01255728091346772</v>
+        <v>0.01382832765141177</v>
       </c>
       <c r="F190">
-        <v>0.00018659488663441421</v>
+        <v>0.0017197127506681602</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -5639,22 +5663,22 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>3.388144164665601e-05</v>
+        <v>0.00046027765657485106</v>
       </c>
       <c r="C191">
-        <v>0.95412737844739548</v>
+        <v>0.02048605560724804</v>
       </c>
       <c r="D191">
-        <v>0.026884040502434554</v>
+        <v>0.86934622654887428</v>
       </c>
       <c r="E191">
-        <v>0.017930764414399603</v>
+        <v>0.018059515082633516</v>
       </c>
       <c r="F191">
-        <v>0.00102393519412367</v>
+        <v>0.091647925104669403</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -5662,19 +5686,19 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>0.00035957189262063235</v>
+        <v>0.00028690213670220604</v>
       </c>
       <c r="C192">
-        <v>0.94987167637024528</v>
+        <v>0.79037976002683985</v>
       </c>
       <c r="D192">
-        <v>0.025207251184180778</v>
+        <v>0.15572325049263724</v>
       </c>
       <c r="E192">
-        <v>0.022440600134564771</v>
+        <v>0.019221148861183188</v>
       </c>
       <c r="F192">
-        <v>0.0021209004183884799</v>
+        <v>0.034388938482637514</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -5685,19 +5709,19 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>8.3916441314979306e-08</v>
+        <v>4.7390380277397129e-05</v>
       </c>
       <c r="C193">
-        <v>0.99036571688008312</v>
+        <v>0.88714229106259501</v>
       </c>
       <c r="D193">
-        <v>1.3685125542750105e-05</v>
+        <v>0.10742664231070068</v>
       </c>
       <c r="E193">
-        <v>0.007923890341152217</v>
+        <v>0.0051867077160758068</v>
       </c>
       <c r="F193">
-        <v>0.0016966237367807393</v>
+        <v>0.0001969685303509901</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -5708,19 +5732,19 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>8.0158610929383133e-05</v>
+        <v>5.4083634706109099e-05</v>
       </c>
       <c r="C194">
-        <v>0.73175756640067058</v>
+        <v>0.98590391192352711</v>
       </c>
       <c r="D194">
-        <v>0.21325273266776351</v>
+        <v>0.0030240644322032852</v>
       </c>
       <c r="E194">
-        <v>0.052282904722199687</v>
+        <v>0.010685435030905955</v>
       </c>
       <c r="F194">
-        <v>0.0026266375984368511</v>
+        <v>0.0003325049786574711</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -5731,19 +5755,19 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>6.2916839847945656e-05</v>
+        <v>0.0002979304037257229</v>
       </c>
       <c r="C195">
-        <v>0.92725587334602</v>
+        <v>0.94945649191029113</v>
       </c>
       <c r="D195">
-        <v>0.057988784663805984</v>
+        <v>0.037501701885880846</v>
       </c>
       <c r="E195">
-        <v>0.014191286469469528</v>
+        <v>0.01255728091346772</v>
       </c>
       <c r="F195">
-        <v>0.00050113868085660139</v>
+        <v>0.00018659488663441421</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -5754,19 +5778,19 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>3.5907711318155873e-05</v>
+        <v>3.388144164665601e-05</v>
       </c>
       <c r="C196">
-        <v>0.90919448443141848</v>
+        <v>0.95412737844739548</v>
       </c>
       <c r="D196">
-        <v>0.086020297297365864</v>
+        <v>0.026884040502434554</v>
       </c>
       <c r="E196">
-        <v>0.0045364992542786097</v>
+        <v>0.017930764414399603</v>
       </c>
       <c r="F196">
-        <v>0.00021281130561874643</v>
+        <v>0.00102393519412367</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -5777,19 +5801,19 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.00013979199973118938</v>
+        <v>0.00035957189262063235</v>
       </c>
       <c r="C197">
-        <v>0.94123353036551871</v>
+        <v>0.94987167637024528</v>
       </c>
       <c r="D197">
-        <v>0.039179611127984057</v>
+        <v>0.025207251184180778</v>
       </c>
       <c r="E197">
-        <v>0.018038106273032567</v>
+        <v>0.022440600134564771</v>
       </c>
       <c r="F197">
-        <v>0.0014089602337335645</v>
+        <v>0.0021209004183884799</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -5800,19 +5824,19 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1.2270157742997871e-05</v>
+        <v>8.3916441314979306e-08</v>
       </c>
       <c r="C198">
-        <v>0.91171613598495371</v>
+        <v>0.99036571688008312</v>
       </c>
       <c r="D198">
-        <v>0.077415844697398317</v>
+        <v>1.3685125542750105e-05</v>
       </c>
       <c r="E198">
-        <v>0.010557687804710978</v>
+        <v>0.007923890341152217</v>
       </c>
       <c r="F198">
-        <v>0.00029806135519391493</v>
+        <v>0.0016966237367807393</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -5823,19 +5847,19 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>4.4019538463014853e-06</v>
+        <v>8.0158610929383133e-05</v>
       </c>
       <c r="C199">
-        <v>0.99186560932760337</v>
+        <v>0.73175756640067058</v>
       </c>
       <c r="D199">
-        <v>0.00049794333939373332</v>
+        <v>0.21325273266776351</v>
       </c>
       <c r="E199">
-        <v>0.0063519983352725053</v>
+        <v>0.052282904722199687</v>
       </c>
       <c r="F199">
-        <v>0.0012800470438839803</v>
+        <v>0.0026266375984368511</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -5846,19 +5870,19 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.0025139912194046027</v>
+        <v>6.2916839847945656e-05</v>
       </c>
       <c r="C200">
-        <v>0.94338294194769279</v>
+        <v>0.92725587334602</v>
       </c>
       <c r="D200">
-        <v>0.031328391911786317</v>
+        <v>0.057988784663805984</v>
       </c>
       <c r="E200">
-        <v>0.020965376014803756</v>
+        <v>0.014191286469469528</v>
       </c>
       <c r="F200">
-        <v>0.001809298906312582</v>
+        <v>0.00050113868085660139</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -5869,19 +5893,19 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>3.3214430853560117e-06</v>
+        <v>3.5907711318155873e-05</v>
       </c>
       <c r="C201">
-        <v>0.91161169424092692</v>
+        <v>0.90919448443141848</v>
       </c>
       <c r="D201">
-        <v>0.074109006752978643</v>
+        <v>0.086020297297365864</v>
       </c>
       <c r="E201">
-        <v>0.013615071026143616</v>
+        <v>0.0045364992542786097</v>
       </c>
       <c r="F201">
-        <v>0.0006609065368655061</v>
+        <v>0.00021281130561874643</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -5892,22 +5916,22 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>8.3801951769394423e-05</v>
+        <v>0.00013979199973118938</v>
       </c>
       <c r="C202">
-        <v>1.0863329617044917e-05</v>
+        <v>0.94123353036551871</v>
       </c>
       <c r="D202">
-        <v>0.99257013608758493</v>
+        <v>0.039179611127984057</v>
       </c>
       <c r="E202">
-        <v>0.0068839446813399709</v>
+        <v>0.018038106273032567</v>
       </c>
       <c r="F202">
-        <v>0.00045125394968858454</v>
+        <v>0.0014089602337335645</v>
       </c>
       <c r="G202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5915,22 +5939,22 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.00056871855680238768</v>
+        <v>1.2270157742997871e-05</v>
       </c>
       <c r="C203">
-        <v>1.4746908316794891e-05</v>
+        <v>0.91171613598495371</v>
       </c>
       <c r="D203">
-        <v>0.99478009851297422</v>
+        <v>0.077415844697398317</v>
       </c>
       <c r="E203">
-        <v>0.0046055125144861229</v>
+        <v>0.010557687804710978</v>
       </c>
       <c r="F203">
-        <v>3.0923507420404382e-05</v>
+        <v>0.00029806135519391493</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5938,22 +5962,22 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.00091543298728662234</v>
+        <v>4.4019538463014853e-06</v>
       </c>
       <c r="C204">
-        <v>4.8572666832061259e-06</v>
+        <v>0.99186560932760337</v>
       </c>
       <c r="D204">
-        <v>0.99531022722241902</v>
+        <v>0.00049794333939373332</v>
       </c>
       <c r="E204">
-        <v>0.0036223959471572771</v>
+        <v>0.0063519983352725053</v>
       </c>
       <c r="F204">
-        <v>0.00014708657645384396</v>
+        <v>0.0012800470438839803</v>
       </c>
       <c r="G204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5961,19 +5985,19 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1.0648131895613404e-05</v>
+        <v>0.0025139912194046027</v>
       </c>
       <c r="C205">
-        <v>0.70970732168402983</v>
+        <v>0.94338294194769279</v>
       </c>
       <c r="D205">
-        <v>0.28359811006240659</v>
+        <v>0.031328391911786317</v>
       </c>
       <c r="E205">
-        <v>0.0061361365182267223</v>
+        <v>0.020965376014803756</v>
       </c>
       <c r="F205">
-        <v>0.00054778360344132039</v>
+        <v>0.001809298906312582</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -5984,19 +6008,19 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>6.6496337753320614e-05</v>
+        <v>3.3214430853560117e-06</v>
       </c>
       <c r="C206">
-        <v>0.96111628277554007</v>
+        <v>0.91161169424092692</v>
       </c>
       <c r="D206">
-        <v>0.013764154358688715</v>
+        <v>0.074109006752978643</v>
       </c>
       <c r="E206">
-        <v>0.020422661922613026</v>
+        <v>0.013615071026143616</v>
       </c>
       <c r="F206">
-        <v>0.0046304046054047926</v>
+        <v>0.0006609065368655061</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -6007,22 +6031,22 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>6.1768726445675455e-06</v>
+        <v>8.3801951769394423e-05</v>
       </c>
       <c r="C207">
-        <v>0.0075258978931382423</v>
+        <v>1.0863329617044917e-05</v>
       </c>
       <c r="D207">
-        <v>0.01783636152359673</v>
+        <v>0.99257013608758493</v>
       </c>
       <c r="E207">
-        <v>0.016542305279049627</v>
+        <v>0.0068839446813399709</v>
       </c>
       <c r="F207">
-        <v>0.95808925843157089</v>
+        <v>0.00045125394968858454</v>
       </c>
       <c r="G207">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -6030,22 +6054,22 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>3.5510210094197089e-05</v>
+        <v>0.00056871855680238768</v>
       </c>
       <c r="C208">
-        <v>0.96127229992771535</v>
+        <v>1.4746908316794891e-05</v>
       </c>
       <c r="D208">
-        <v>0.013444030448634969</v>
+        <v>0.99478009851297422</v>
       </c>
       <c r="E208">
-        <v>0.02471814997517955</v>
+        <v>0.0046055125144861229</v>
       </c>
       <c r="F208">
-        <v>0.00053000943837601551</v>
+        <v>3.0923507420404382e-05</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -6053,22 +6077,22 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>6.6999752622292125e-05</v>
+        <v>0.00091543298728662234</v>
       </c>
       <c r="C209">
-        <v>0.97546122717700212</v>
+        <v>4.8572666832061259e-06</v>
       </c>
       <c r="D209">
-        <v>0.016746263796278405</v>
+        <v>0.99531022722241902</v>
       </c>
       <c r="E209">
-        <v>0.0072430450743957283</v>
+        <v>0.0036223959471572771</v>
       </c>
       <c r="F209">
-        <v>0.00048246419970134232</v>
+        <v>0.00014708657645384396</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -6076,19 +6100,19 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.2850056219407023e-05</v>
+        <v>1.0648131895613404e-05</v>
       </c>
       <c r="C210">
-        <v>0.90304831922311224</v>
+        <v>0.70970732168402983</v>
       </c>
       <c r="D210">
-        <v>0.084148055022977924</v>
+        <v>0.28359811006240659</v>
       </c>
       <c r="E210">
-        <v>0.012317455985557802</v>
+        <v>0.0061361365182267223</v>
       </c>
       <c r="F210">
-        <v>0.00047331971213265524</v>
+        <v>0.00054778360344132039</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -6099,19 +6123,19 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>6.4396430141893415e-05</v>
+        <v>6.6496337753320614e-05</v>
       </c>
       <c r="C211">
-        <v>0.91499545117473635</v>
+        <v>0.96111628277554007</v>
       </c>
       <c r="D211">
-        <v>0.066816529769211028</v>
+        <v>0.013764154358688715</v>
       </c>
       <c r="E211">
-        <v>0.017716642588859237</v>
+        <v>0.020422661922613026</v>
       </c>
       <c r="F211">
-        <v>0.00040698003705149033</v>
+        <v>0.0046304046054047926</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -6122,22 +6146,22 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>3.5510210094197089e-05</v>
+        <v>6.1768726445675455e-06</v>
       </c>
       <c r="C212">
-        <v>0.96127229992771535</v>
+        <v>0.0075258978931382423</v>
       </c>
       <c r="D212">
-        <v>0.013444030448634969</v>
+        <v>0.01783636152359673</v>
       </c>
       <c r="E212">
-        <v>0.02471814997517955</v>
+        <v>0.016542305279049627</v>
       </c>
       <c r="F212">
-        <v>0.00053000943837601551</v>
+        <v>0.95808925843157089</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -6145,19 +6169,19 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>5.0908826863951923e-05</v>
+        <v>3.5510210094197089e-05</v>
       </c>
       <c r="C213">
-        <v>0.91002250286056419</v>
+        <v>0.96127229992771535</v>
       </c>
       <c r="D213">
-        <v>0.078492039692925231</v>
+        <v>0.013444030448634969</v>
       </c>
       <c r="E213">
-        <v>0.011299726659951756</v>
+        <v>0.02471814997517955</v>
       </c>
       <c r="F213">
-        <v>0.00013482195969485652</v>
+        <v>0.00053000943837601551</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -6168,22 +6192,22 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.0011521207714664189</v>
+        <v>6.6999752622292125e-05</v>
       </c>
       <c r="C214">
-        <v>8.7287836005886218e-06</v>
+        <v>0.97546122717700212</v>
       </c>
       <c r="D214">
-        <v>0.9945861907128789</v>
+        <v>0.016746263796278405</v>
       </c>
       <c r="E214">
-        <v>0.0041708717650432896</v>
+        <v>0.0072430450743957283</v>
       </c>
       <c r="F214">
-        <v>8.2087967010864303e-05</v>
+        <v>0.00048246419970134232</v>
       </c>
       <c r="G214">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -6191,22 +6215,22 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>7.6262923026167454e-06</v>
+        <v>1.2850056219407023e-05</v>
       </c>
       <c r="C215">
-        <v>0.0011365434458436316</v>
+        <v>0.90304831922311224</v>
       </c>
       <c r="D215">
-        <v>0.98645053981451902</v>
+        <v>0.084148055022977924</v>
       </c>
       <c r="E215">
-        <v>0.010455661595023811</v>
+        <v>0.012317455985557802</v>
       </c>
       <c r="F215">
-        <v>0.0019496288523109283</v>
+        <v>0.00047331971213265524</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -6214,22 +6238,22 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>6.5704318291800529e-05</v>
+        <v>6.4396430141893415e-05</v>
       </c>
       <c r="C216">
-        <v>0.00019906967267337811</v>
+        <v>0.91499545117473635</v>
       </c>
       <c r="D216">
-        <v>0.99066743268414259</v>
+        <v>0.066816529769211028</v>
       </c>
       <c r="E216">
-        <v>0.0078621787722836008</v>
+        <v>0.017716642588859237</v>
       </c>
       <c r="F216">
-        <v>0.0012056145526085941</v>
+        <v>0.00040698003705149033</v>
       </c>
       <c r="G216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -6237,22 +6261,22 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>7.7908832745004071e-05</v>
+        <v>3.5510210094197089e-05</v>
       </c>
       <c r="C217">
-        <v>0.00015730877089940062</v>
+        <v>0.96127229992771535</v>
       </c>
       <c r="D217">
-        <v>0.99130673506413602</v>
+        <v>0.013444030448634969</v>
       </c>
       <c r="E217">
-        <v>0.0076840914217552901</v>
+        <v>0.02471814997517955</v>
       </c>
       <c r="F217">
-        <v>0.00077395591046439626</v>
+        <v>0.00053000943837601551</v>
       </c>
       <c r="G217">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -6260,22 +6284,22 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.00075857776640724547</v>
+        <v>5.0908826863951923e-05</v>
       </c>
       <c r="C218">
-        <v>1.5515741891203835e-05</v>
+        <v>0.91002250286056419</v>
       </c>
       <c r="D218">
-        <v>0.99544237071905906</v>
+        <v>0.078492039692925231</v>
       </c>
       <c r="E218">
-        <v>0.0035242898091916133</v>
+        <v>0.011299726659951756</v>
       </c>
       <c r="F218">
-        <v>0.00025924596345076276</v>
+        <v>0.00013482195969485652</v>
       </c>
       <c r="G218">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -6283,19 +6307,19 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.001856652303651355</v>
+        <v>0.0011521207714664189</v>
       </c>
       <c r="C219">
-        <v>2.5831854791833975e-05</v>
+        <v>8.7287836005886218e-06</v>
       </c>
       <c r="D219">
-        <v>0.99369783884250074</v>
+        <v>0.9945861907128789</v>
       </c>
       <c r="E219">
-        <v>0.004024832772362234</v>
+        <v>0.0041708717650432896</v>
       </c>
       <c r="F219">
-        <v>0.000394844226693733</v>
+        <v>8.2087967010864303e-05</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -6306,22 +6330,22 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>3.8152411409193308e-07</v>
+        <v>7.6262923026167454e-06</v>
       </c>
       <c r="C220">
-        <v>0.99711619884510472</v>
+        <v>0.0011365434458436316</v>
       </c>
       <c r="D220">
-        <v>0.00033997293326406023</v>
+        <v>0.98645053981451902</v>
       </c>
       <c r="E220">
-        <v>0.002253906259063312</v>
+        <v>0.010455661595023811</v>
       </c>
       <c r="F220">
-        <v>0.00028954043845374919</v>
+        <v>0.0019496288523109283</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -6329,22 +6353,22 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>3.2212444269339047e-08</v>
+        <v>6.5704318291800529e-05</v>
       </c>
       <c r="C221">
-        <v>0.99327395928601003</v>
+        <v>0.00019906967267337811</v>
       </c>
       <c r="D221">
-        <v>2.2801885394614833e-06</v>
+        <v>0.99066743268414259</v>
       </c>
       <c r="E221">
-        <v>0.0061092894152755678</v>
+        <v>0.0078621787722836008</v>
       </c>
       <c r="F221">
-        <v>0.00061443889773074524</v>
+        <v>0.0012056145526085941</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -6352,22 +6376,22 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>8.5599181914856041e-05</v>
+        <v>7.7908832745004071e-05</v>
       </c>
       <c r="C222">
-        <v>0.80392014372536791</v>
+        <v>0.00015730877089940062</v>
       </c>
       <c r="D222">
-        <v>0.17277325215036859</v>
+        <v>0.99130673506413602</v>
       </c>
       <c r="E222">
-        <v>0.016504140872773663</v>
+        <v>0.0076840914217552901</v>
       </c>
       <c r="F222">
-        <v>0.0067168640695750214</v>
+        <v>0.00077395591046439626</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -6375,22 +6399,22 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>5.7930185552185165e-10</v>
+        <v>0.00075857776640724547</v>
       </c>
       <c r="C223">
-        <v>0.99328103975976423</v>
+        <v>1.5515741891203835e-05</v>
       </c>
       <c r="D223">
-        <v>6.3352361674307539e-07</v>
+        <v>0.99544237071905906</v>
       </c>
       <c r="E223">
-        <v>0.0066086499058095561</v>
+        <v>0.0035242898091916133</v>
       </c>
       <c r="F223">
-        <v>0.00010967623150766133</v>
+        <v>0.00025924596345076276</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -6398,22 +6422,22 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>9.4723367666997336e-06</v>
+        <v>0.001856652303651355</v>
       </c>
       <c r="C224">
-        <v>0.81287929301717055</v>
+        <v>2.5831854791833975e-05</v>
       </c>
       <c r="D224">
-        <v>0.17192695817719364</v>
+        <v>0.99369783884250074</v>
       </c>
       <c r="E224">
-        <v>0.014037993286557429</v>
+        <v>0.004024832772362234</v>
       </c>
       <c r="F224">
-        <v>0.0011462831823115974</v>
+        <v>0.000394844226693733</v>
       </c>
       <c r="G224">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -6421,19 +6445,19 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>4.855131576599667e-08</v>
+        <v>3.8152411409193308e-07</v>
       </c>
       <c r="C225">
-        <v>0.99458250661791225</v>
+        <v>0.99711619884510472</v>
       </c>
       <c r="D225">
-        <v>1.2477776097892843e-05</v>
+        <v>0.00033997293326406023</v>
       </c>
       <c r="E225">
-        <v>0.0045508691810148601</v>
+        <v>0.002253906259063312</v>
       </c>
       <c r="F225">
-        <v>0.00085409787365915322</v>
+        <v>0.00028954043845374919</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -6444,22 +6468,22 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1.5739778816103445e-05</v>
+        <v>3.2212444269339047e-08</v>
       </c>
       <c r="C226">
-        <v>0.013922560813746723</v>
+        <v>0.99327395928601003</v>
       </c>
       <c r="D226">
-        <v>0.97054268421165324</v>
+        <v>2.2801885394614833e-06</v>
       </c>
       <c r="E226">
-        <v>0.0043187527431735222</v>
+        <v>0.0061092894152755678</v>
       </c>
       <c r="F226">
-        <v>0.0112002624526104</v>
+        <v>0.00061443889773074524</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -6467,19 +6491,19 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1.2098816245545369e-05</v>
+        <v>8.5599181914856041e-05</v>
       </c>
       <c r="C227">
-        <v>0.98000123452753252</v>
+        <v>0.80392014372536791</v>
       </c>
       <c r="D227">
-        <v>0.0064945802703897998</v>
+        <v>0.17277325215036859</v>
       </c>
       <c r="E227">
-        <v>0.011409338719466061</v>
+        <v>0.016504140872773663</v>
       </c>
       <c r="F227">
-        <v>0.0020827476663661279</v>
+        <v>0.0067168640695750214</v>
       </c>
       <c r="G227">
         <v>2</v>
@@ -6490,19 +6514,19 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.00046501602354305472</v>
+        <v>5.7930185552185165e-10</v>
       </c>
       <c r="C228">
-        <v>0.93070839592247323</v>
+        <v>0.99328103975976423</v>
       </c>
       <c r="D228">
-        <v>0.050979943275620498</v>
+        <v>6.3352361674307539e-07</v>
       </c>
       <c r="E228">
-        <v>0.017463078264921054</v>
+        <v>0.0066086499058095561</v>
       </c>
       <c r="F228">
-        <v>0.00038356651344234144</v>
+        <v>0.00010967623150766133</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -6513,19 +6537,19 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>7.7016554298172913e-09</v>
+        <v>9.4723367666997336e-06</v>
       </c>
       <c r="C229">
-        <v>0.99117968616775087</v>
+        <v>0.81287929301717055</v>
       </c>
       <c r="D229">
-        <v>4.2263407104922873e-06</v>
+        <v>0.17192695817719364</v>
       </c>
       <c r="E229">
-        <v>0.0069966332112478538</v>
+        <v>0.014037993286557429</v>
       </c>
       <c r="F229">
-        <v>0.0018194465786352814</v>
+        <v>0.0011462831823115974</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -6536,19 +6560,19 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.00013785717735917438</v>
+        <v>4.855131576599667e-08</v>
       </c>
       <c r="C230">
-        <v>0.95998472314532646</v>
+        <v>0.99458250661791225</v>
       </c>
       <c r="D230">
-        <v>0.026848043562187784</v>
+        <v>1.2477776097892843e-05</v>
       </c>
       <c r="E230">
-        <v>0.01288980658320755</v>
+        <v>0.0045508691810148601</v>
       </c>
       <c r="F230">
-        <v>0.00013956953191915884</v>
+        <v>0.00085409787365915322</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -6559,22 +6583,22 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6.6925560344074811e-05</v>
+        <v>1.5739778816103445e-05</v>
       </c>
       <c r="C231">
-        <v>0.96671097727009336</v>
+        <v>0.013922560813746723</v>
       </c>
       <c r="D231">
-        <v>0.018451572800000513</v>
+        <v>0.97054268421165324</v>
       </c>
       <c r="E231">
-        <v>0.014330982494665044</v>
+        <v>0.0043187527431735222</v>
       </c>
       <c r="F231">
-        <v>0.00043954187489697073</v>
+        <v>0.0112002624526104</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -6582,19 +6606,19 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1.7377892848888052e-06</v>
+        <v>1.2098816245545369e-05</v>
       </c>
       <c r="C232">
-        <v>0.91638272038814206</v>
+        <v>0.98000123452753252</v>
       </c>
       <c r="D232">
-        <v>0.077828337644088613</v>
+        <v>0.0064945802703897998</v>
       </c>
       <c r="E232">
-        <v>0.0056609293647303461</v>
+        <v>0.011409338719466061</v>
       </c>
       <c r="F232">
-        <v>0.00012627481375386847</v>
+        <v>0.0020827476663661279</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -6605,19 +6629,19 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>6.3731927348184805e-05</v>
+        <v>0.00046501602354305472</v>
       </c>
       <c r="C233">
-        <v>0.91260512232594537</v>
+        <v>0.93070839592247323</v>
       </c>
       <c r="D233">
-        <v>0.074503426799393771</v>
+        <v>0.050979943275620498</v>
       </c>
       <c r="E233">
-        <v>0.012340346321452545</v>
+        <v>0.017463078264921054</v>
       </c>
       <c r="F233">
-        <v>0.00048737262586010834</v>
+        <v>0.00038356651344234144</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -6628,19 +6652,19 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>6.4936601159518178e-05</v>
+        <v>7.7016554298172913e-09</v>
       </c>
       <c r="C234">
-        <v>0.91290547534110988</v>
+        <v>0.99117968616775087</v>
       </c>
       <c r="D234">
-        <v>0.07405383787118254</v>
+        <v>4.2263407104922873e-06</v>
       </c>
       <c r="E234">
-        <v>0.012481721336661492</v>
+        <v>0.0069966332112478538</v>
       </c>
       <c r="F234">
-        <v>0.00049402884988655651</v>
+        <v>0.0018194465786352814</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -6651,19 +6675,19 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>3.3628971386100149e-05</v>
+        <v>0.00013785717735917438</v>
       </c>
       <c r="C235">
-        <v>0.93753946981354785</v>
+        <v>0.95998472314532646</v>
       </c>
       <c r="D235">
-        <v>0.041698458224098928</v>
+        <v>0.026848043562187784</v>
       </c>
       <c r="E235">
-        <v>0.020415328683447097</v>
+        <v>0.01288980658320755</v>
       </c>
       <c r="F235">
-        <v>0.00031311430752000916</v>
+        <v>0.00013956953191915884</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -6674,19 +6698,19 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>3.1986097462553763e-05</v>
+        <v>6.6925560344074811e-05</v>
       </c>
       <c r="C236">
-        <v>0.98313830255894352</v>
+        <v>0.96671097727009336</v>
       </c>
       <c r="D236">
-        <v>0.0035023780767801066</v>
+        <v>0.018451572800000513</v>
       </c>
       <c r="E236">
-        <v>0.011114765318836029</v>
+        <v>0.014330982494665044</v>
       </c>
       <c r="F236">
-        <v>0.0022125679479777886</v>
+        <v>0.00043954187489697073</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -6697,19 +6721,19 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>8.4354360553035533e-05</v>
+        <v>1.7377892848888052e-06</v>
       </c>
       <c r="C237">
-        <v>0.92728343755288745</v>
+        <v>0.91638272038814206</v>
       </c>
       <c r="D237">
-        <v>0.050721491256081642</v>
+        <v>0.077828337644088613</v>
       </c>
       <c r="E237">
-        <v>0.021412748481260249</v>
+        <v>0.0056609293647303461</v>
       </c>
       <c r="F237">
-        <v>0.00049796834921758855</v>
+        <v>0.00012627481375386847</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -6720,19 +6744,19 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>1.5146474466699137e-06</v>
+        <v>6.3731927348184805e-05</v>
       </c>
       <c r="C238">
-        <v>0.97819917682723534</v>
+        <v>0.91260512232594537</v>
       </c>
       <c r="D238">
-        <v>0.0091357819510137026</v>
+        <v>0.074503426799393771</v>
       </c>
       <c r="E238">
-        <v>0.012595343256943163</v>
+        <v>0.012340346321452545</v>
       </c>
       <c r="F238">
-        <v>6.8183317361074114e-05</v>
+        <v>0.00048737262586010834</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -6743,19 +6767,19 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>3.801450093610332e-05</v>
+        <v>6.4936601159518178e-05</v>
       </c>
       <c r="C239">
-        <v>0.92230695864283407</v>
+        <v>0.91290547534110988</v>
       </c>
       <c r="D239">
-        <v>0.062363147394061118</v>
+        <v>0.07405383787118254</v>
       </c>
       <c r="E239">
-        <v>0.014939593598651707</v>
+        <v>0.012481721336661492</v>
       </c>
       <c r="F239">
-        <v>0.00035228586351695611</v>
+        <v>0.00049402884988655651</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -6766,19 +6790,19 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.64895648162728e-05</v>
+        <v>3.3628971386100149e-05</v>
       </c>
       <c r="C240">
-        <v>0.95508411582001329</v>
+        <v>0.93753946981354785</v>
       </c>
       <c r="D240">
-        <v>0.026874342043424856</v>
+        <v>0.041698458224098928</v>
       </c>
       <c r="E240">
-        <v>0.016917161112137685</v>
+        <v>0.020415328683447097</v>
       </c>
       <c r="F240">
-        <v>0.0011078914596077366</v>
+        <v>0.00031311430752000916</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -6789,19 +6813,19 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>2.8514581872379042e-06</v>
+        <v>3.1986097462553763e-05</v>
       </c>
       <c r="C241">
-        <v>0.95120492418541003</v>
+        <v>0.98313830255894352</v>
       </c>
       <c r="D241">
-        <v>0.04188761594741082</v>
+        <v>0.0035023780767801066</v>
       </c>
       <c r="E241">
-        <v>0.0067559784101561557</v>
+        <v>0.011114765318836029</v>
       </c>
       <c r="F241">
-        <v>0.00014862999883560277</v>
+        <v>0.0022125679479777886</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -6812,22 +6836,22 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.0022142770383331389</v>
+        <v>8.4354360553035533e-05</v>
       </c>
       <c r="C242">
-        <v>0.0016187116820452346</v>
+        <v>0.92728343755288745</v>
       </c>
       <c r="D242">
-        <v>0.96804883772721007</v>
+        <v>0.050721491256081642</v>
       </c>
       <c r="E242">
-        <v>0.013248996917629615</v>
+        <v>0.021412748481260249</v>
       </c>
       <c r="F242">
-        <v>0.014869176634782117</v>
+        <v>0.00049796834921758855</v>
       </c>
       <c r="G242">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -6835,22 +6859,22 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.00028017846123143479</v>
+        <v>1.5146474466699137e-06</v>
       </c>
       <c r="C243">
-        <v>2.6111292850185685e-05</v>
+        <v>0.97819917682723534</v>
       </c>
       <c r="D243">
-        <v>0.99469359014720082</v>
+        <v>0.0091357819510137026</v>
       </c>
       <c r="E243">
-        <v>0.0048882863727689576</v>
+        <v>0.012595343256943163</v>
       </c>
       <c r="F243">
-        <v>0.0001118337259484378</v>
+        <v>6.8183317361074114e-05</v>
       </c>
       <c r="G243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -6858,22 +6882,22 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.0029807742974331101</v>
+        <v>3.801450093610332e-05</v>
       </c>
       <c r="C244">
-        <v>5.5445428270311869e-05</v>
+        <v>0.92230695864283407</v>
       </c>
       <c r="D244">
-        <v>0.99358626420634288</v>
+        <v>0.062363147394061118</v>
       </c>
       <c r="E244">
-        <v>0.0026411352019864043</v>
+        <v>0.014939593598651707</v>
       </c>
       <c r="F244">
-        <v>0.00073638086596726981</v>
+        <v>0.00035228586351695611</v>
       </c>
       <c r="G244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6881,22 +6905,22 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1.1270471261866226e-05</v>
+        <v>1.64895648162728e-05</v>
       </c>
       <c r="C245">
-        <v>0.00044655928689010522</v>
+        <v>0.95508411582001329</v>
       </c>
       <c r="D245">
-        <v>0.0014232763529371736</v>
+        <v>0.026874342043424856</v>
       </c>
       <c r="E245">
-        <v>0.0011254960639101247</v>
+        <v>0.016917161112137685</v>
       </c>
       <c r="F245">
-        <v>0.99699339782500063</v>
+        <v>0.0011078914596077366</v>
       </c>
       <c r="G245">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6904,22 +6928,22 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.00021775937778032326</v>
+        <v>2.8514581872379042e-06</v>
       </c>
       <c r="C246">
-        <v>9.4855143864432342e-05</v>
+        <v>0.95120492418541003</v>
       </c>
       <c r="D246">
-        <v>0.99600976762175819</v>
+        <v>0.04188761594741082</v>
       </c>
       <c r="E246">
-        <v>0.0036153900405860124</v>
+        <v>0.0067559784101561557</v>
       </c>
       <c r="F246">
-        <v>6.2227816011017437e-05</v>
+        <v>0.00014862999883560277</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6927,19 +6951,19 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>6.3215919459063937e-05</v>
+        <v>0.0022142770383331389</v>
       </c>
       <c r="C247">
-        <v>5.2273053533816017e-05</v>
+        <v>0.0016187116820452346</v>
       </c>
       <c r="D247">
-        <v>0.99311724413076918</v>
+        <v>0.96804883772721007</v>
       </c>
       <c r="E247">
-        <v>0.0065475013668030088</v>
+        <v>0.013248996917629615</v>
       </c>
       <c r="F247">
-        <v>0.00021976552943484703</v>
+        <v>0.014869176634782117</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -6950,19 +6974,19 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>1.6193725711859952e-05</v>
+        <v>0.00028017846123143479</v>
       </c>
       <c r="C248">
-        <v>7.6124520653647439e-05</v>
+        <v>2.6111292850185685e-05</v>
       </c>
       <c r="D248">
-        <v>0.99296546050579515</v>
+        <v>0.99469359014720082</v>
       </c>
       <c r="E248">
-        <v>0.0061695631515454596</v>
+        <v>0.0048882863727689576</v>
       </c>
       <c r="F248">
-        <v>0.00077265809629386184</v>
+        <v>0.0001118337259484378</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -6973,22 +6997,22 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2.7892245838961181e-08</v>
+        <v>1.7109310544387348e-12</v>
       </c>
       <c r="C249">
-        <v>0.99445830270420199</v>
+        <v>0.00028930892205343735</v>
       </c>
       <c r="D249">
-        <v>6.1186227429892986e-05</v>
+        <v>0.99964617988068738</v>
       </c>
       <c r="E249">
-        <v>0.0050712030852293954</v>
+        <v>6.015593086919719e-05</v>
       </c>
       <c r="F249">
-        <v>0.00040928009089295786</v>
+        <v>4.3552646790035913e-06</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -6996,22 +7020,22 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>1.4951635930624988e-07</v>
+        <v>0.0029807742974331101</v>
       </c>
       <c r="C250">
-        <v>0.99319259774778779</v>
+        <v>5.5445428270311869e-05</v>
       </c>
       <c r="D250">
-        <v>4.6523263562138307e-06</v>
+        <v>0.99358626420634288</v>
       </c>
       <c r="E250">
-        <v>0.0064895929759337277</v>
+        <v>0.0026411352019864043</v>
       </c>
       <c r="F250">
-        <v>0.00031300743356306432</v>
+        <v>0.00073638086596726981</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -7019,22 +7043,22 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>2.7892245838961181e-08</v>
+        <v>1.1270471261866226e-05</v>
       </c>
       <c r="C251">
-        <v>0.99445830270420199</v>
+        <v>0.00044655928689010522</v>
       </c>
       <c r="D251">
-        <v>6.1186227429892986e-05</v>
+        <v>0.0014232763529371736</v>
       </c>
       <c r="E251">
-        <v>0.0050712030852293954</v>
+        <v>0.0011254960639101247</v>
       </c>
       <c r="F251">
-        <v>0.00040928009089295786</v>
+        <v>0.99699339782500063</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -7042,22 +7066,22 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>3.6187646882451926e-09</v>
+        <v>0.00021775937778032326</v>
       </c>
       <c r="C252">
-        <v>0.98946771520400534</v>
+        <v>9.4855143864432342e-05</v>
       </c>
       <c r="D252">
-        <v>9.9529127448898832e-06</v>
+        <v>0.99600976762175819</v>
       </c>
       <c r="E252">
-        <v>0.010017805916685938</v>
+        <v>0.0036153900405860124</v>
       </c>
       <c r="F252">
-        <v>0.00050452234779928035</v>
+        <v>6.2227816011017437e-05</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -7065,19 +7089,19 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.000100485458556319</v>
+        <v>6.3215919459063937e-05</v>
       </c>
       <c r="C253">
-        <v>2.2662459082893022e-05</v>
+        <v>5.2273053533816017e-05</v>
       </c>
       <c r="D253">
-        <v>0.9950994745827807</v>
+        <v>0.99311724413076918</v>
       </c>
       <c r="E253">
-        <v>0.0041303974904203129</v>
+        <v>0.0065475013668030088</v>
       </c>
       <c r="F253">
-        <v>0.00064698000915975424</v>
+        <v>0.00021976552943484703</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -7088,22 +7112,22 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>3.8970795794161479e-09</v>
+        <v>1.6193725711859952e-05</v>
       </c>
       <c r="C254">
-        <v>0.99424284894282566</v>
+        <v>7.6124520653647439e-05</v>
       </c>
       <c r="D254">
-        <v>2.0842113700928588e-06</v>
+        <v>0.99296546050579515</v>
       </c>
       <c r="E254">
-        <v>0.0056411588475292936</v>
+        <v>0.0061695631515454596</v>
       </c>
       <c r="F254">
-        <v>0.00011390410119547675</v>
+        <v>0.00077265809629386184</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -7111,19 +7135,19 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>2.7954122236357754e-08</v>
+        <v>2.7892245838961181e-08</v>
       </c>
       <c r="C255">
-        <v>0.99228911159869515</v>
+        <v>0.99445830270420199</v>
       </c>
       <c r="D255">
-        <v>1.8701894247115684e-05</v>
+        <v>6.1186227429892986e-05</v>
       </c>
       <c r="E255">
-        <v>0.0070966053094699338</v>
+        <v>0.0050712030852293954</v>
       </c>
       <c r="F255">
-        <v>0.00059555324346582744</v>
+        <v>0.00040928009089295786</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -7134,19 +7158,19 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2.7323436070800267e-08</v>
+        <v>1.4951635930624988e-07</v>
       </c>
       <c r="C256">
-        <v>0.98942286649845357</v>
+        <v>0.99319259774778779</v>
       </c>
       <c r="D256">
-        <v>1.093567527912185e-05</v>
+        <v>4.6523263562138307e-06</v>
       </c>
       <c r="E256">
-        <v>0.010233609851389835</v>
+        <v>0.0064895929759337277</v>
       </c>
       <c r="F256">
-        <v>0.00033256065144155069</v>
+        <v>0.00031300743356306432</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -7157,19 +7181,19 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>3.8970795794161479e-09</v>
+        <v>2.7892245838961181e-08</v>
       </c>
       <c r="C257">
-        <v>0.99424284894282566</v>
+        <v>0.99445830270420199</v>
       </c>
       <c r="D257">
-        <v>2.0842113700928588e-06</v>
+        <v>6.1186227429892986e-05</v>
       </c>
       <c r="E257">
-        <v>0.0056411588475292936</v>
+        <v>0.0050712030852293954</v>
       </c>
       <c r="F257">
-        <v>0.00011390410119547675</v>
+        <v>0.00040928009089295786</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -7180,19 +7204,19 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>5.4877481624756282e-09</v>
+        <v>3.6187646882451926e-09</v>
       </c>
       <c r="C258">
-        <v>0.98906563136080294</v>
+        <v>0.98946771520400534</v>
       </c>
       <c r="D258">
-        <v>5.2457941294917007e-07</v>
+        <v>9.9529127448898832e-06</v>
       </c>
       <c r="E258">
-        <v>0.0078891543999493</v>
+        <v>0.010017805916685938</v>
       </c>
       <c r="F258">
-        <v>0.0030446841720865908</v>
+        <v>0.00050452234779928035</v>
       </c>
       <c r="G258">
         <v>2</v>
@@ -7203,19 +7227,19 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.00054544165832096623</v>
+        <v>0.000100485458556319</v>
       </c>
       <c r="C259">
-        <v>0.00022110379861553698</v>
+        <v>2.2662459082893022e-05</v>
       </c>
       <c r="D259">
-        <v>0.98132961854721856</v>
+        <v>0.9950994745827807</v>
       </c>
       <c r="E259">
-        <v>0.0074954382174704263</v>
+        <v>0.0041303974904203129</v>
       </c>
       <c r="F259">
-        <v>0.010408397778374561</v>
+        <v>0.00064698000915975424</v>
       </c>
       <c r="G259">
         <v>3</v>
@@ -7226,22 +7250,22 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>8.6242530604324664e-06</v>
+        <v>3.8970795794161479e-09</v>
       </c>
       <c r="C260">
-        <v>7.0816090020081795e-07</v>
+        <v>0.99424284894282566</v>
       </c>
       <c r="D260">
-        <v>0.99556617681290871</v>
+        <v>2.0842113700928588e-06</v>
       </c>
       <c r="E260">
-        <v>0.0042380512398020312</v>
+        <v>0.0056411588475292936</v>
       </c>
       <c r="F260">
-        <v>0.00018643953332845697</v>
+        <v>0.00011390410119547675</v>
       </c>
       <c r="G260">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -7249,19 +7273,19 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2.0912203970995045e-08</v>
+        <v>2.7954122236357754e-08</v>
       </c>
       <c r="C261">
-        <v>0.99030784419607532</v>
+        <v>0.99228911159869515</v>
       </c>
       <c r="D261">
-        <v>3.215147871429752e-06</v>
+        <v>1.8701894247115684e-05</v>
       </c>
       <c r="E261">
-        <v>0.0088071580667775946</v>
+        <v>0.0070966053094699338</v>
       </c>
       <c r="F261">
-        <v>0.00088176167707166577</v>
+        <v>0.00059555324346582744</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -7272,19 +7296,19 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2.0912203970995045e-08</v>
+        <v>2.7323436070800267e-08</v>
       </c>
       <c r="C262">
-        <v>0.99030784419607532</v>
+        <v>0.98942286649845357</v>
       </c>
       <c r="D262">
-        <v>3.215147871429752e-06</v>
+        <v>1.093567527912185e-05</v>
       </c>
       <c r="E262">
-        <v>0.0088071580667775946</v>
+        <v>0.010233609851389835</v>
       </c>
       <c r="F262">
-        <v>0.00088176167707166577</v>
+        <v>0.00033256065144155069</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -7295,22 +7319,22 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.00038981202590787086</v>
+        <v>3.8970795794161479e-09</v>
       </c>
       <c r="C263">
-        <v>4.9522955238358351e-06</v>
+        <v>0.99424284894282566</v>
       </c>
       <c r="D263">
-        <v>0.99526922719555067</v>
+        <v>2.0842113700928588e-06</v>
       </c>
       <c r="E263">
-        <v>0.0039543442121706563</v>
+        <v>0.0056411588475292936</v>
       </c>
       <c r="F263">
-        <v>0.00038166427084705261</v>
+        <v>0.00011390410119547675</v>
       </c>
       <c r="G263">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -7318,22 +7342,22 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.00028456360812700101</v>
+        <v>5.4877481624756282e-09</v>
       </c>
       <c r="C264">
-        <v>0.00078750050774642043</v>
+        <v>0.98906563136080294</v>
       </c>
       <c r="D264">
-        <v>0.99072726202788519</v>
+        <v>5.2457941294917007e-07</v>
       </c>
       <c r="E264">
-        <v>0.0050649382784233345</v>
+        <v>0.0078891543999493</v>
       </c>
       <c r="F264">
-        <v>0.0031357355778180752</v>
+        <v>0.0030446841720865908</v>
       </c>
       <c r="G264">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -7341,22 +7365,22 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00054544165832096623</v>
       </c>
       <c r="C265">
-        <v>0.0045871870236409264</v>
+        <v>0.00022110379861553698</v>
       </c>
       <c r="D265">
-        <v>0.0026783230488343036</v>
+        <v>0.98132961854721856</v>
       </c>
       <c r="E265">
-        <v>0.0016262915525528164</v>
+        <v>0.0074954382174704263</v>
       </c>
       <c r="F265">
-        <v>0.99110386270778483</v>
+        <v>0.010408397778374561</v>
       </c>
       <c r="G265">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -7364,19 +7388,19 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.00013394142030243223</v>
+        <v>8.6242530604324664e-06</v>
       </c>
       <c r="C266">
-        <v>0.00075871199202172661</v>
+        <v>7.0816090020081795e-07</v>
       </c>
       <c r="D266">
-        <v>0.99101935421153364</v>
+        <v>0.99556617681290871</v>
       </c>
       <c r="E266">
-        <v>0.0052775752647045661</v>
+        <v>0.0042380512398020312</v>
       </c>
       <c r="F266">
-        <v>0.0028104171114376308</v>
+        <v>0.00018643953332845697</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -7387,19 +7411,19 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>3.6981204755389592e-08</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C267">
-        <v>0.9845694229099432</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D267">
-        <v>1.1408144159520347e-05</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E267">
-        <v>0.014956572047751129</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F267">
-        <v>0.00046255991694140624</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G267">
         <v>2</v>
@@ -7410,22 +7434,22 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>0.015346548512904375</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C268">
-        <v>6.8419724595076279e-05</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D268">
-        <v>0.97352447269866138</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E268">
-        <v>0.0064462303641925327</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F268">
-        <v>0.0046143286996466713</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G268">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -7433,22 +7457,22 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1.6569236987813331e-07</v>
+        <v>0.00038981202590787086</v>
       </c>
       <c r="C269">
-        <v>0.99007532223342376</v>
+        <v>4.9522955238358351e-06</v>
       </c>
       <c r="D269">
-        <v>7.0130888662403811e-06</v>
+        <v>0.99526922719555067</v>
       </c>
       <c r="E269">
-        <v>0.0092280117167577724</v>
+        <v>0.0039543442121706563</v>
       </c>
       <c r="F269">
-        <v>0.00068948726858229152</v>
+        <v>0.00038166427084705261</v>
       </c>
       <c r="G269">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -7456,22 +7480,22 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00028456360812700101</v>
       </c>
       <c r="C270">
-        <v>0.0045871870236409264</v>
+        <v>0.00078750050774642043</v>
       </c>
       <c r="D270">
-        <v>0.0026783230488343036</v>
+        <v>0.99072726202788519</v>
       </c>
       <c r="E270">
-        <v>0.0016262915525528164</v>
+        <v>0.0050649382784233345</v>
       </c>
       <c r="F270">
-        <v>0.99110386270778483</v>
+        <v>0.0031357355778180752</v>
       </c>
       <c r="G270">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -7479,22 +7503,22 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.0010122243229938777</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C271">
-        <v>6.1251584703628017e-05</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D271">
-        <v>0.97338120620878554</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E271">
-        <v>0.0035615838340225699</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F271">
-        <v>0.021983734049494469</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G271">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
@@ -7502,22 +7526,22 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>4.6347976342901845e-08</v>
+        <v>0.00013394142030243223</v>
       </c>
       <c r="C272">
-        <v>0.98937432555666516</v>
+        <v>0.00075871199202172661</v>
       </c>
       <c r="D272">
-        <v>4.053112173322818e-06</v>
+        <v>0.99101935421153364</v>
       </c>
       <c r="E272">
-        <v>0.010520637400824142</v>
+        <v>0.0052775752647045661</v>
       </c>
       <c r="F272">
-        <v>0.00010093758236115402</v>
+        <v>0.0028104171114376308</v>
       </c>
       <c r="G272">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -7525,19 +7549,19 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>1.1064567775594661e-07</v>
+        <v>3.6981204755389592e-08</v>
       </c>
       <c r="C273">
-        <v>0.99523782214958123</v>
+        <v>0.9845694229099432</v>
       </c>
       <c r="D273">
-        <v>1.3473746896757311e-06</v>
+        <v>1.1408144159520347e-05</v>
       </c>
       <c r="E273">
-        <v>0.0042470969707826874</v>
+        <v>0.014956572047751129</v>
       </c>
       <c r="F273">
-        <v>0.00051362285926870267</v>
+        <v>0.00046255991694140624</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -7548,22 +7572,22 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>5.6761256561829837e-08</v>
+        <v>0.015346548512904375</v>
       </c>
       <c r="C274">
-        <v>0.98783881839998089</v>
+        <v>6.8419724595076279e-05</v>
       </c>
       <c r="D274">
-        <v>3.6392810553047604e-06</v>
+        <v>0.97352447269866138</v>
       </c>
       <c r="E274">
-        <v>0.0056260541825210991</v>
+        <v>0.0064462303641925327</v>
       </c>
       <c r="F274">
-        <v>0.0065314313751861771</v>
+        <v>0.0046143286996466713</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -7571,22 +7595,22 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.0011354159553349072</v>
+        <v>1.6569236987813331e-07</v>
       </c>
       <c r="C275">
-        <v>0.0001536075344694091</v>
+        <v>0.99007532223342376</v>
       </c>
       <c r="D275">
-        <v>0.99367532811025749</v>
+        <v>7.0130888662403811e-06</v>
       </c>
       <c r="E275">
-        <v>0.0039192998138736449</v>
+        <v>0.0092280117167577724</v>
       </c>
       <c r="F275">
-        <v>0.0011163485860644601</v>
+        <v>0.00068948726858229152</v>
       </c>
       <c r="G275">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -7594,22 +7618,22 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.00016046178616969402</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C276">
-        <v>0.00015773892316680723</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D276">
-        <v>0.99387227207500384</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E276">
-        <v>0.0056355170032916548</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F276">
-        <v>0.00017401021236791372</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G276">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
@@ -7617,22 +7641,22 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>4.3356671870827343e-06</v>
+        <v>0.0010122243229938777</v>
       </c>
       <c r="C277">
-        <v>0.0045871870236409264</v>
+        <v>6.1251584703628017e-05</v>
       </c>
       <c r="D277">
-        <v>0.0026783230488343036</v>
+        <v>0.97338120620878554</v>
       </c>
       <c r="E277">
-        <v>0.0016262915525528164</v>
+        <v>0.0035615838340225699</v>
       </c>
       <c r="F277">
-        <v>0.99110386270778483</v>
+        <v>0.021983734049494469</v>
       </c>
       <c r="G277">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -7640,22 +7664,22 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>4.3356671870827343e-06</v>
+        <v>4.6347976342901845e-08</v>
       </c>
       <c r="C278">
-        <v>0.0045871870236409264</v>
+        <v>0.98937432555666516</v>
       </c>
       <c r="D278">
-        <v>0.0026783230488343036</v>
+        <v>4.053112173322818e-06</v>
       </c>
       <c r="E278">
-        <v>0.0016262915525528164</v>
+        <v>0.010520637400824142</v>
       </c>
       <c r="F278">
-        <v>0.99110386270778483</v>
+        <v>0.00010093758236115402</v>
       </c>
       <c r="G278">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -7663,22 +7687,22 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>2.2201975758761681e-06</v>
+        <v>1.1064567775594661e-07</v>
       </c>
       <c r="C279">
-        <v>0.0003269044702791117</v>
+        <v>0.99523782214958123</v>
       </c>
       <c r="D279">
-        <v>0.0020162798458189489</v>
+        <v>1.3473746896757311e-06</v>
       </c>
       <c r="E279">
-        <v>0.001758393139536696</v>
+        <v>0.0042470969707826874</v>
       </c>
       <c r="F279">
-        <v>0.99589620234678933</v>
+        <v>0.00051362285926870267</v>
       </c>
       <c r="G279">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -7686,22 +7710,22 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>2.2201975758761681e-06</v>
+        <v>5.6761256561829837e-08</v>
       </c>
       <c r="C280">
-        <v>0.0003269044702791117</v>
+        <v>0.98783881839998089</v>
       </c>
       <c r="D280">
-        <v>0.0020162798458189489</v>
+        <v>3.6392810553047604e-06</v>
       </c>
       <c r="E280">
-        <v>0.001758393139536696</v>
+        <v>0.0056260541825210991</v>
       </c>
       <c r="F280">
-        <v>0.99589620234678933</v>
+        <v>0.0065314313751861771</v>
       </c>
       <c r="G280">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -7709,22 +7733,22 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>3.8996472454007435e-08</v>
+        <v>0.0011354159553349072</v>
       </c>
       <c r="C281">
-        <v>0.99009621838595052</v>
+        <v>0.0001536075344694091</v>
       </c>
       <c r="D281">
-        <v>5.2225465374011973e-06</v>
+        <v>0.99367532811025749</v>
       </c>
       <c r="E281">
-        <v>0.0094414507427172025</v>
+        <v>0.0039192998138736449</v>
       </c>
       <c r="F281">
-        <v>0.00045706932832250406</v>
+        <v>0.0011163485860644601</v>
       </c>
       <c r="G281">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -7732,19 +7756,19 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.0084924423017165886</v>
+        <v>0.00016046178616969402</v>
       </c>
       <c r="C282">
-        <v>0.00058132127165122656</v>
+        <v>0.00015773892316680723</v>
       </c>
       <c r="D282">
-        <v>0.95087657664426284</v>
+        <v>0.99387227207500384</v>
       </c>
       <c r="E282">
-        <v>0.011837040482634602</v>
+        <v>0.0056355170032916548</v>
       </c>
       <c r="F282">
-        <v>0.028212619299734752</v>
+        <v>0.00017401021236791372</v>
       </c>
       <c r="G282">
         <v>3</v>
@@ -7755,22 +7779,22 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.00091657264542961312</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C283">
-        <v>0.00026704865675643671</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D283">
-        <v>0.99408351083968438</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E283">
-        <v>0.0039544009411054534</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F283">
-        <v>0.0007784669170241798</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
@@ -7778,22 +7802,22 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.00038085288626870024</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C284">
-        <v>1.4688996410106729e-06</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D284">
-        <v>0.99171820273875033</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E284">
-        <v>0.0078548137749568387</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F284">
-        <v>4.4661700383127022e-05</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G284">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285">
@@ -7801,22 +7825,22 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.00038715141312494958</v>
+        <v>2.2201975758761681e-06</v>
       </c>
       <c r="C285">
-        <v>2.8714994294689169e-06</v>
+        <v>0.0003269044702791117</v>
       </c>
       <c r="D285">
-        <v>0.99228680763113575</v>
+        <v>0.0020162798458189489</v>
       </c>
       <c r="E285">
-        <v>0.0072540566627523105</v>
+        <v>0.001758393139536696</v>
       </c>
       <c r="F285">
-        <v>6.9112793557509253e-05</v>
+        <v>0.99589620234678933</v>
       </c>
       <c r="G285">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
@@ -7824,22 +7848,22 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.00030820161889165605</v>
+        <v>2.2201975758761681e-06</v>
       </c>
       <c r="C286">
-        <v>0.00041333884849367432</v>
+        <v>0.0003269044702791117</v>
       </c>
       <c r="D286">
-        <v>0.98393533593173743</v>
+        <v>0.0020162798458189489</v>
       </c>
       <c r="E286">
-        <v>0.0052162590860534968</v>
+        <v>0.001758393139536696</v>
       </c>
       <c r="F286">
-        <v>0.01012686451482381</v>
+        <v>0.99589620234678933</v>
       </c>
       <c r="G286">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287">
@@ -7847,22 +7871,22 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.0014082029152727043</v>
+        <v>3.8996472454007435e-08</v>
       </c>
       <c r="C287">
-        <v>0.00019688479940840393</v>
+        <v>0.99009621838595052</v>
       </c>
       <c r="D287">
-        <v>0.99228986415939346</v>
+        <v>5.2225465374011973e-06</v>
       </c>
       <c r="E287">
-        <v>0.0055712731051994167</v>
+        <v>0.0094414507427172025</v>
       </c>
       <c r="F287">
-        <v>0.00053377502072609305</v>
+        <v>0.00045706932832250406</v>
       </c>
       <c r="G287">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -7870,19 +7894,19 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.00022037246657284005</v>
+        <v>0.0084924423017165886</v>
       </c>
       <c r="C288">
-        <v>1.9457466327157018e-05</v>
+        <v>0.00058132127165122656</v>
       </c>
       <c r="D288">
-        <v>0.98915037614343415</v>
+        <v>0.95087657664426284</v>
       </c>
       <c r="E288">
-        <v>0.010537824266849903</v>
+        <v>0.011837040482634602</v>
       </c>
       <c r="F288">
-        <v>7.1969656816055485e-05</v>
+        <v>0.028212619299734752</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -7893,22 +7917,22 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00091657264542961312</v>
       </c>
       <c r="C289">
-        <v>0.0045871870236409264</v>
+        <v>0.00026704865675643671</v>
       </c>
       <c r="D289">
-        <v>0.0026783230488343036</v>
+        <v>0.99408351083968438</v>
       </c>
       <c r="E289">
-        <v>0.0016262915525528164</v>
+        <v>0.0039544009411054534</v>
       </c>
       <c r="F289">
-        <v>0.99110386270778483</v>
+        <v>0.0007784669170241798</v>
       </c>
       <c r="G289">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -7916,22 +7940,22 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00038085288626870024</v>
       </c>
       <c r="C290">
-        <v>0.0045871870236409264</v>
+        <v>1.4688996410106729e-06</v>
       </c>
       <c r="D290">
-        <v>0.0026783230488343036</v>
+        <v>0.99171820273875033</v>
       </c>
       <c r="E290">
-        <v>0.0016262915525528164</v>
+        <v>0.0078548137749568387</v>
       </c>
       <c r="F290">
-        <v>0.99110386270778483</v>
+        <v>4.4661700383127022e-05</v>
       </c>
       <c r="G290">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -7939,22 +7963,22 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00038715141312494958</v>
       </c>
       <c r="C291">
-        <v>0.0045871870236409264</v>
+        <v>2.8714994294689169e-06</v>
       </c>
       <c r="D291">
-        <v>0.0026783230488343036</v>
+        <v>0.99228680763113575</v>
       </c>
       <c r="E291">
-        <v>0.0016262915525528164</v>
+        <v>0.0072540566627523105</v>
       </c>
       <c r="F291">
-        <v>0.99110386270778483</v>
+        <v>6.9112793557509253e-05</v>
       </c>
       <c r="G291">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -7962,22 +7986,22 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>5.4877481624756282e-09</v>
+        <v>0.00030820161889165605</v>
       </c>
       <c r="C292">
-        <v>0.98906563136080294</v>
+        <v>0.00041333884849367432</v>
       </c>
       <c r="D292">
-        <v>5.2457941294917007e-07</v>
+        <v>0.98393533593173743</v>
       </c>
       <c r="E292">
-        <v>0.0078891543999493</v>
+        <v>0.0052162590860534968</v>
       </c>
       <c r="F292">
-        <v>0.0030446841720865908</v>
+        <v>0.01012686451482381</v>
       </c>
       <c r="G292">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -7985,19 +8009,19 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>4.6321777658486393e-05</v>
+        <v>0.0014082029152727043</v>
       </c>
       <c r="C293">
-        <v>3.8115920338826521e-05</v>
+        <v>0.00019688479940840393</v>
       </c>
       <c r="D293">
-        <v>0.98988259334145245</v>
+        <v>0.99228986415939346</v>
       </c>
       <c r="E293">
-        <v>0.0097941620702122738</v>
+        <v>0.0055712731051994167</v>
       </c>
       <c r="F293">
-        <v>0.00023880689033798307</v>
+        <v>0.00053377502072609305</v>
       </c>
       <c r="G293">
         <v>3</v>
@@ -8008,19 +8032,19 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>3.2578787560074507e-05</v>
+        <v>0.00022037246657284005</v>
       </c>
       <c r="C294">
-        <v>2.9332047251232012e-06</v>
+        <v>1.9457466327157018e-05</v>
       </c>
       <c r="D294">
-        <v>0.99452750795983991</v>
+        <v>0.98915037614343415</v>
       </c>
       <c r="E294">
-        <v>0.0053354710777123769</v>
+        <v>0.010537824266849903</v>
       </c>
       <c r="F294">
-        <v>0.00010150897016227444</v>
+        <v>7.1969656816055485e-05</v>
       </c>
       <c r="G294">
         <v>3</v>
@@ -8031,22 +8055,22 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2.7148022517690777e-07</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C295">
-        <v>0.9915835312014103</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D295">
-        <v>1.8951090709905683e-06</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E295">
-        <v>0.008141416025371391</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F295">
-        <v>0.00027288618392218392</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296">
@@ -8054,22 +8078,22 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>3.8970795794161479e-09</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C296">
-        <v>0.99424284894282566</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D296">
-        <v>2.0842113700928588e-06</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E296">
-        <v>0.0056411588475292936</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F296">
-        <v>0.00011390410119547675</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G296">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -8077,22 +8101,22 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.00039083302980537658</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C297">
-        <v>0.0011846595263248548</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D297">
-        <v>0.95846381760262211</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E297">
-        <v>0.0080182202232418481</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F297">
-        <v>0.03194246961800578</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G297">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
@@ -8100,19 +8124,19 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4.6347976342901845e-08</v>
+        <v>5.4877481624756282e-09</v>
       </c>
       <c r="C298">
-        <v>0.98937432555666516</v>
+        <v>0.98906563136080294</v>
       </c>
       <c r="D298">
-        <v>4.053112173322818e-06</v>
+        <v>5.2457941294917007e-07</v>
       </c>
       <c r="E298">
-        <v>0.010520637400824142</v>
+        <v>0.0078891543999493</v>
       </c>
       <c r="F298">
-        <v>0.00010093758236115402</v>
+        <v>0.0030446841720865908</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -8123,22 +8147,22 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>4.3764398020613409e-08</v>
+        <v>4.6321777658486393e-05</v>
       </c>
       <c r="C299">
-        <v>0.9782991328321492</v>
+        <v>3.8115920338826521e-05</v>
       </c>
       <c r="D299">
-        <v>2.4128574169321792e-05</v>
+        <v>0.98988259334145245</v>
       </c>
       <c r="E299">
-        <v>0.012498125857663854</v>
+        <v>0.0097941620702122738</v>
       </c>
       <c r="F299">
-        <v>0.0091785689716197601</v>
+        <v>0.00023880689033798307</v>
       </c>
       <c r="G299">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -8146,22 +8170,22 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>4.6347976342901845e-08</v>
+        <v>3.2578787560074507e-05</v>
       </c>
       <c r="C300">
-        <v>0.98937432555666516</v>
+        <v>2.9332047251232012e-06</v>
       </c>
       <c r="D300">
-        <v>4.053112173322818e-06</v>
+        <v>0.99452750795983991</v>
       </c>
       <c r="E300">
-        <v>0.010520637400824142</v>
+        <v>0.0053354710777123769</v>
       </c>
       <c r="F300">
-        <v>0.00010093758236115402</v>
+        <v>0.00010150897016227444</v>
       </c>
       <c r="G300">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -8169,19 +8193,19 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>4.6347976342901845e-08</v>
+        <v>2.7148022517690777e-07</v>
       </c>
       <c r="C301">
-        <v>0.98937432555666516</v>
+        <v>0.9915835312014103</v>
       </c>
       <c r="D301">
-        <v>4.053112173322818e-06</v>
+        <v>1.8951090709905683e-06</v>
       </c>
       <c r="E301">
-        <v>0.010520637400824142</v>
+        <v>0.008141416025371391</v>
       </c>
       <c r="F301">
-        <v>0.00010093758236115402</v>
+        <v>0.00027288618392218392</v>
       </c>
       <c r="G301">
         <v>2</v>
@@ -8215,22 +8239,22 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.00032793493736395262</v>
+        <v>0.00039083302980537658</v>
       </c>
       <c r="C303">
-        <v>0.97249263694261756</v>
+        <v>0.0011846595263248548</v>
       </c>
       <c r="D303">
-        <v>0.0043699762590325032</v>
+        <v>0.95846381760262211</v>
       </c>
       <c r="E303">
-        <v>0.013878042178173539</v>
+        <v>0.0080182202232418481</v>
       </c>
       <c r="F303">
-        <v>0.0089314096828124814</v>
+        <v>0.03194246961800578</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -8238,19 +8262,19 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>1.6569236987813331e-07</v>
+        <v>4.6347976342901845e-08</v>
       </c>
       <c r="C304">
-        <v>0.99007532223342376</v>
+        <v>0.98937432555666516</v>
       </c>
       <c r="D304">
-        <v>7.0130888662403811e-06</v>
+        <v>4.053112173322818e-06</v>
       </c>
       <c r="E304">
-        <v>0.0092280117167577724</v>
+        <v>0.010520637400824142</v>
       </c>
       <c r="F304">
-        <v>0.00068948726858229152</v>
+        <v>0.00010093758236115402</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -8261,22 +8285,22 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.00054489291989541933</v>
+        <v>4.3764398020613409e-08</v>
       </c>
       <c r="C305">
-        <v>6.9478894725639104e-06</v>
+        <v>0.9782991328321492</v>
       </c>
       <c r="D305">
-        <v>0.99275546742607135</v>
+        <v>2.4128574169321792e-05</v>
       </c>
       <c r="E305">
-        <v>0.0065723285418088709</v>
+        <v>0.012498125857663854</v>
       </c>
       <c r="F305">
-        <v>0.00012036322275167165</v>
+        <v>0.0091785689716197601</v>
       </c>
       <c r="G305">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -8284,19 +8308,19 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>1.2997622063845312e-07</v>
+        <v>4.6347976342901845e-08</v>
       </c>
       <c r="C306">
-        <v>0.99205705539219402</v>
+        <v>0.98937432555666516</v>
       </c>
       <c r="D306">
-        <v>2.7532048764940405e-06</v>
+        <v>4.053112173322818e-06</v>
       </c>
       <c r="E306">
-        <v>0.0077152109118886359</v>
+        <v>0.010520637400824142</v>
       </c>
       <c r="F306">
-        <v>0.00022485051482041556</v>
+        <v>0.00010093758236115402</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -8307,19 +8331,19 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>5.4877481624756282e-09</v>
+        <v>4.6347976342901845e-08</v>
       </c>
       <c r="C307">
-        <v>0.98906563136080294</v>
+        <v>0.98937432555666516</v>
       </c>
       <c r="D307">
-        <v>5.2457941294917007e-07</v>
+        <v>4.053112173322818e-06</v>
       </c>
       <c r="E307">
-        <v>0.0078891543999493</v>
+        <v>0.010520637400824142</v>
       </c>
       <c r="F307">
-        <v>0.0030446841720865908</v>
+        <v>0.00010093758236115402</v>
       </c>
       <c r="G307">
         <v>2</v>
@@ -8330,19 +8354,19 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.00058339843579750144</v>
+        <v>3.8970795794161479e-09</v>
       </c>
       <c r="C308">
-        <v>0.96636848945812781</v>
+        <v>0.99424284894282566</v>
       </c>
       <c r="D308">
-        <v>0.0043137834469198708</v>
+        <v>2.0842113700928588e-06</v>
       </c>
       <c r="E308">
-        <v>0.016676496192563953</v>
+        <v>0.0056411588475292936</v>
       </c>
       <c r="F308">
-        <v>0.012057832466590873</v>
+        <v>0.00011390410119547675</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -8353,22 +8377,22 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.00027740787913367175</v>
+        <v>0.00032793493736395262</v>
       </c>
       <c r="C309">
-        <v>2.3919137329100185e-05</v>
+        <v>0.97249263694261756</v>
       </c>
       <c r="D309">
-        <v>0.99485105985947775</v>
+        <v>0.0043699762590325032</v>
       </c>
       <c r="E309">
-        <v>0.0044942438161351432</v>
+        <v>0.013878042178173539</v>
       </c>
       <c r="F309">
-        <v>0.0003533693079242026</v>
+        <v>0.0089314096828124814</v>
       </c>
       <c r="G309">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -8376,22 +8400,22 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>4.3356671870827343e-06</v>
+        <v>1.6569236987813331e-07</v>
       </c>
       <c r="C310">
-        <v>0.0045871870236409264</v>
+        <v>0.99007532223342376</v>
       </c>
       <c r="D310">
-        <v>0.0026783230488343036</v>
+        <v>7.0130888662403811e-06</v>
       </c>
       <c r="E310">
-        <v>0.0016262915525528164</v>
+        <v>0.0092280117167577724</v>
       </c>
       <c r="F310">
-        <v>0.99110386270778483</v>
+        <v>0.00068948726858229152</v>
       </c>
       <c r="G310">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -8399,22 +8423,22 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00054489291989541933</v>
       </c>
       <c r="C311">
-        <v>0.0045871870236409264</v>
+        <v>6.9478894725639104e-06</v>
       </c>
       <c r="D311">
-        <v>0.0026783230488343036</v>
+        <v>0.99275546742607135</v>
       </c>
       <c r="E311">
-        <v>0.0016262915525528164</v>
+        <v>0.0065723285418088709</v>
       </c>
       <c r="F311">
-        <v>0.99110386270778483</v>
+        <v>0.00012036322275167165</v>
       </c>
       <c r="G311">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -8422,19 +8446,19 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>2.0912203970995045e-08</v>
+        <v>1.2997622063845312e-07</v>
       </c>
       <c r="C312">
-        <v>0.99030784419607532</v>
+        <v>0.99205705539219402</v>
       </c>
       <c r="D312">
-        <v>3.215147871429752e-06</v>
+        <v>2.7532048764940405e-06</v>
       </c>
       <c r="E312">
-        <v>0.0088071580667775946</v>
+        <v>0.0077152109118886359</v>
       </c>
       <c r="F312">
-        <v>0.00088176167707166577</v>
+        <v>0.00022485051482041556</v>
       </c>
       <c r="G312">
         <v>2</v>
@@ -8445,22 +8469,22 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>2.2201975758761681e-06</v>
+        <v>5.4877481624756282e-09</v>
       </c>
       <c r="C313">
-        <v>0.0003269044702791117</v>
+        <v>0.98906563136080294</v>
       </c>
       <c r="D313">
-        <v>0.0020162798458189489</v>
+        <v>5.2457941294917007e-07</v>
       </c>
       <c r="E313">
-        <v>0.001758393139536696</v>
+        <v>0.0078891543999493</v>
       </c>
       <c r="F313">
-        <v>0.99589620234678933</v>
+        <v>0.0030446841720865908</v>
       </c>
       <c r="G313">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -8468,22 +8492,22 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>4.3356671870827343e-06</v>
+        <v>0.00058339843579750144</v>
       </c>
       <c r="C314">
-        <v>0.0045871870236409264</v>
+        <v>0.96636848945812781</v>
       </c>
       <c r="D314">
-        <v>0.0026783230488343036</v>
+        <v>0.0043137834469198708</v>
       </c>
       <c r="E314">
-        <v>0.0016262915525528164</v>
+        <v>0.016676496192563953</v>
       </c>
       <c r="F314">
-        <v>0.99110386270778483</v>
+        <v>0.012057832466590873</v>
       </c>
       <c r="G314">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -8491,22 +8515,22 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>3.8970795794161479e-09</v>
+        <v>0.00027740787913367175</v>
       </c>
       <c r="C315">
-        <v>0.99424284894282566</v>
+        <v>2.3919137329100185e-05</v>
       </c>
       <c r="D315">
-        <v>2.0842113700928588e-06</v>
+        <v>0.99485105985947775</v>
       </c>
       <c r="E315">
-        <v>0.0056411588475292936</v>
+        <v>0.0044942438161351432</v>
       </c>
       <c r="F315">
-        <v>0.00011390410119547675</v>
+        <v>0.0003533693079242026</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -8514,22 +8538,22 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>3.8970795794161479e-09</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C316">
-        <v>0.99424284894282566</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D316">
-        <v>2.0842113700928588e-06</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E316">
-        <v>0.0056411588475292936</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F316">
-        <v>0.00011390410119547675</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G316">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
@@ -8537,22 +8561,22 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>2.2081812211184104e-09</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C317">
-        <v>0.99171811778331509</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D317">
-        <v>3.6323826195971629e-07</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E317">
-        <v>0.0067262231233934456</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F317">
-        <v>0.0015552936468481906</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
@@ -8560,22 +8584,22 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>3.7861051626957106e-05</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C318">
-        <v>1.0335003150281226e-05</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D318">
-        <v>0.9952018430941304</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E318">
-        <v>0.004658876185717177</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F318">
-        <v>9.1084665375078803e-05</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -8583,22 +8607,22 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.00028774851051431523</v>
+        <v>2.2201975758761681e-06</v>
       </c>
       <c r="C319">
-        <v>0.00049660230435852662</v>
+        <v>0.0003269044702791117</v>
       </c>
       <c r="D319">
-        <v>0.9849047538962642</v>
+        <v>0.0020162798458189489</v>
       </c>
       <c r="E319">
-        <v>0.0066646619294276795</v>
+        <v>0.001758393139536696</v>
       </c>
       <c r="F319">
-        <v>0.0076462333594353145</v>
+        <v>0.99589620234678933</v>
       </c>
       <c r="G319">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
@@ -8606,22 +8630,22 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>5.3743468033538883e-05</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C320">
-        <v>2.1836378265545194e-06</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D320">
-        <v>0.99524591776451932</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E320">
-        <v>0.0045624027518147399</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F320">
-        <v>0.00013575237780595067</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G320">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
@@ -8629,19 +8653,19 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>4.562437606513506e-08</v>
+        <v>3.8970795794161479e-09</v>
       </c>
       <c r="C321">
-        <v>0.97857225644116064</v>
+        <v>0.99424284894282566</v>
       </c>
       <c r="D321">
-        <v>2.5635497603493212e-05</v>
+        <v>2.0842113700928588e-06</v>
       </c>
       <c r="E321">
-        <v>0.012545617405232187</v>
+        <v>0.0056411588475292936</v>
       </c>
       <c r="F321">
-        <v>0.0088564450316275505</v>
+        <v>0.00011390410119547675</v>
       </c>
       <c r="G321">
         <v>2</v>
@@ -8652,19 +8676,19 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>2.4326293710015962e-07</v>
+        <v>3.8970795794161479e-09</v>
       </c>
       <c r="C322">
-        <v>0.99208598243383561</v>
+        <v>0.99424284894282566</v>
       </c>
       <c r="D322">
-        <v>0.00014274137525721367</v>
+        <v>2.0842113700928588e-06</v>
       </c>
       <c r="E322">
-        <v>0.0059687140667186592</v>
+        <v>0.0056411588475292936</v>
       </c>
       <c r="F322">
-        <v>0.0018023188612512255</v>
+        <v>0.00011390410119547675</v>
       </c>
       <c r="G322">
         <v>2</v>
@@ -8675,22 +8699,22 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>4.3356671870827343e-06</v>
+        <v>2.2081812211184104e-09</v>
       </c>
       <c r="C323">
-        <v>0.0045871870236409264</v>
+        <v>0.99171811778331509</v>
       </c>
       <c r="D323">
-        <v>0.0026783230488343036</v>
+        <v>3.6323826195971629e-07</v>
       </c>
       <c r="E323">
-        <v>0.0016262915525528164</v>
+        <v>0.0067262231233934456</v>
       </c>
       <c r="F323">
-        <v>0.99110386270778483</v>
+        <v>0.0015552936468481906</v>
       </c>
       <c r="G323">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -8698,19 +8722,19 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>7.0306247979397312e-05</v>
+        <v>1.6076044226634704e-05</v>
       </c>
       <c r="C324">
-        <v>4.86379303464107e-06</v>
+        <v>5.2596720638097082e-06</v>
       </c>
       <c r="D324">
-        <v>0.9929268136317323</v>
+        <v>0.9942076730578101</v>
       </c>
       <c r="E324">
-        <v>0.0068517336113622261</v>
+        <v>0.0056590015177091259</v>
       </c>
       <c r="F324">
-        <v>0.00014628271589127196</v>
+        <v>0.00011198970819032966</v>
       </c>
       <c r="G324">
         <v>3</v>
@@ -8721,22 +8745,22 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>2.0912203970995045e-08</v>
+        <v>3.7861051626957106e-05</v>
       </c>
       <c r="C325">
-        <v>0.99030784419607532</v>
+        <v>1.0335003150281226e-05</v>
       </c>
       <c r="D325">
-        <v>3.215147871429752e-06</v>
+        <v>0.9952018430941304</v>
       </c>
       <c r="E325">
-        <v>0.0088071580667775946</v>
+        <v>0.004658876185717177</v>
       </c>
       <c r="F325">
-        <v>0.00088176167707166577</v>
+        <v>9.1084665375078803e-05</v>
       </c>
       <c r="G325">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -8744,19 +8768,19 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>3.2247322146976112e-05</v>
+        <v>0.00028774851051431523</v>
       </c>
       <c r="C326">
-        <v>8.1608487066832652e-06</v>
+        <v>0.00049660230435852662</v>
       </c>
       <c r="D326">
-        <v>0.99722782488373118</v>
+        <v>0.9849047538962642</v>
       </c>
       <c r="E326">
-        <v>0.0025778201299959777</v>
+        <v>0.0066646619294276795</v>
       </c>
       <c r="F326">
-        <v>0.00015394681541902019</v>
+        <v>0.0076462333594353145</v>
       </c>
       <c r="G326">
         <v>3</v>
@@ -8767,22 +8791,22 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>2.0912203970995045e-08</v>
+        <v>5.3743468033538883e-05</v>
       </c>
       <c r="C327">
-        <v>0.99030784419607532</v>
+        <v>2.1836378265545194e-06</v>
       </c>
       <c r="D327">
-        <v>3.215147871429752e-06</v>
+        <v>0.99524591776451932</v>
       </c>
       <c r="E327">
-        <v>0.0088071580667775946</v>
+        <v>0.0045624027518147399</v>
       </c>
       <c r="F327">
-        <v>0.00088176167707166577</v>
+        <v>0.00013575237780595067</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -8790,19 +8814,19 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.00027740787913367175</v>
+        <v>3.4837308821558098e-06</v>
       </c>
       <c r="C328">
-        <v>2.3919137329100185e-05</v>
+        <v>6.8001371974397131e-06</v>
       </c>
       <c r="D328">
-        <v>0.99485105985947775</v>
+        <v>0.99434311581723422</v>
       </c>
       <c r="E328">
-        <v>0.0044942438161351432</v>
+        <v>0.0055334282779321217</v>
       </c>
       <c r="F328">
-        <v>0.0003533693079242026</v>
+        <v>0.00011317203675412725</v>
       </c>
       <c r="G328">
         <v>3</v>
@@ -8813,19 +8837,19 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>3.3514667173958554e-08</v>
+        <v>4.562437606513506e-08</v>
       </c>
       <c r="C329">
-        <v>0.9941987692841322</v>
+        <v>0.97857225644116064</v>
       </c>
       <c r="D329">
-        <v>6.6604888111787091e-07</v>
+        <v>2.5635497603493212e-05</v>
       </c>
       <c r="E329">
-        <v>0.0054579223141268248</v>
+        <v>0.012545617405232187</v>
       </c>
       <c r="F329">
-        <v>0.00034260883819262295</v>
+        <v>0.0088564450316275505</v>
       </c>
       <c r="G329">
         <v>2</v>
@@ -8836,19 +8860,19 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>5.6761256561829837e-08</v>
+        <v>2.4326293710015962e-07</v>
       </c>
       <c r="C330">
-        <v>0.98783881839998089</v>
+        <v>0.99208598243383561</v>
       </c>
       <c r="D330">
-        <v>3.6392810553047604e-06</v>
+        <v>0.00014274137525721367</v>
       </c>
       <c r="E330">
-        <v>0.0056260541825210991</v>
+        <v>0.0059687140667186592</v>
       </c>
       <c r="F330">
-        <v>0.0065314313751861771</v>
+        <v>0.0018023188612512255</v>
       </c>
       <c r="G330">
         <v>2</v>
@@ -8859,22 +8883,22 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.00030820161889165605</v>
+        <v>4.3356671870827343e-06</v>
       </c>
       <c r="C331">
-        <v>0.00041333884849367432</v>
+        <v>0.0045871870236409264</v>
       </c>
       <c r="D331">
-        <v>0.98393533593173743</v>
+        <v>0.0026783230488343036</v>
       </c>
       <c r="E331">
-        <v>0.0052162590860534968</v>
+        <v>0.0016262915525528164</v>
       </c>
       <c r="F331">
-        <v>0.01012686451482381</v>
+        <v>0.99110386270778483</v>
       </c>
       <c r="G331">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
@@ -8882,22 +8906,22 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>2.0912203970995045e-08</v>
+        <v>7.0306247979397312e-05</v>
       </c>
       <c r="C332">
-        <v>0.99030784419607532</v>
+        <v>4.86379303464107e-06</v>
       </c>
       <c r="D332">
-        <v>3.215147871429752e-06</v>
+        <v>0.9929268136317323</v>
       </c>
       <c r="E332">
-        <v>0.0088071580667775946</v>
+        <v>0.0068517336113622261</v>
       </c>
       <c r="F332">
-        <v>0.00088176167707166577</v>
+        <v>0.00014628271589127196</v>
       </c>
       <c r="G332">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -8905,19 +8929,19 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>5.4877481624756282e-09</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C333">
-        <v>0.98906563136080294</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D333">
-        <v>5.2457941294917007e-07</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E333">
-        <v>0.0078891543999493</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F333">
-        <v>0.0030446841720865908</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G333">
         <v>2</v>
@@ -8928,22 +8952,22 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>2.0912203970995045e-08</v>
+        <v>3.2247322146976112e-05</v>
       </c>
       <c r="C334">
-        <v>0.99030784419607532</v>
+        <v>8.1608487066832652e-06</v>
       </c>
       <c r="D334">
-        <v>3.215147871429752e-06</v>
+        <v>0.99722782488373118</v>
       </c>
       <c r="E334">
-        <v>0.0088071580667775946</v>
+        <v>0.0025778201299959777</v>
       </c>
       <c r="F334">
-        <v>0.00088176167707166577</v>
+        <v>0.00015394681541902019</v>
       </c>
       <c r="G334">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -8951,22 +8975,22 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>2.2201975758761681e-06</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C335">
-        <v>0.0003269044702791117</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D335">
-        <v>0.0020162798458189489</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E335">
-        <v>0.001758393139536696</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F335">
-        <v>0.99589620234678933</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G335">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -8974,22 +8998,22 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>6.6571318075801995e-05</v>
+        <v>0.00027740787913367175</v>
       </c>
       <c r="C336">
-        <v>0.94857811551699622</v>
+        <v>2.3919137329100185e-05</v>
       </c>
       <c r="D336">
-        <v>0.03920079574368289</v>
+        <v>0.99485105985947775</v>
       </c>
       <c r="E336">
-        <v>0.011604083100703129</v>
+        <v>0.0044942438161351432</v>
       </c>
       <c r="F336">
-        <v>0.00055043432054206678</v>
+        <v>0.0003533693079242026</v>
       </c>
       <c r="G336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -8997,19 +9021,19 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>5.6517126553212985e-05</v>
+        <v>3.3514667173958554e-08</v>
       </c>
       <c r="C337">
-        <v>0.95224687741588132</v>
+        <v>0.9941987692841322</v>
       </c>
       <c r="D337">
-        <v>0.037224022728313814</v>
+        <v>6.6604888111787091e-07</v>
       </c>
       <c r="E337">
-        <v>0.0098932056982220275</v>
+        <v>0.0054579223141268248</v>
       </c>
       <c r="F337">
-        <v>0.00057937703102971683</v>
+        <v>0.00034260883819262295</v>
       </c>
       <c r="G337">
         <v>2</v>
@@ -9020,19 +9044,19 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>1.146400883168574e-06</v>
+        <v>5.6761256561829837e-08</v>
       </c>
       <c r="C338">
-        <v>0.95682329991030446</v>
+        <v>0.98783881839998089</v>
       </c>
       <c r="D338">
-        <v>0.018343587907796669</v>
+        <v>3.6392810553047604e-06</v>
       </c>
       <c r="E338">
-        <v>0.024283492779524251</v>
+        <v>0.0056260541825210991</v>
       </c>
       <c r="F338">
-        <v>0.0005484730014915475</v>
+        <v>0.0065314313751861771</v>
       </c>
       <c r="G338">
         <v>2</v>
@@ -9043,22 +9067,22 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.00012580396804921014</v>
+        <v>0.00030820161889165605</v>
       </c>
       <c r="C339">
-        <v>0.93137398955013206</v>
+        <v>0.00041333884849367432</v>
       </c>
       <c r="D339">
-        <v>0.054232171847131867</v>
+        <v>0.98393533593173743</v>
       </c>
       <c r="E339">
-        <v>0.013859310623790087</v>
+        <v>0.0052162590860534968</v>
       </c>
       <c r="F339">
-        <v>0.00040872401089673985</v>
+        <v>0.01012686451482381</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -9066,19 +9090,19 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>6.6305561329419249e-05</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C340">
-        <v>0.9496598790907661</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D340">
-        <v>0.014570168220546529</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E340">
-        <v>0.029705241660614577</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F340">
-        <v>0.0059984054667434877</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G340">
         <v>2</v>
@@ -9089,19 +9113,19 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.00012580396804921014</v>
+        <v>5.4877481624756282e-09</v>
       </c>
       <c r="C341">
-        <v>0.93137398955013206</v>
+        <v>0.98906563136080294</v>
       </c>
       <c r="D341">
-        <v>0.054232171847131867</v>
+        <v>5.2457941294917007e-07</v>
       </c>
       <c r="E341">
-        <v>0.013859310623790087</v>
+        <v>0.0078891543999493</v>
       </c>
       <c r="F341">
-        <v>0.00040872401089673985</v>
+        <v>0.0030446841720865908</v>
       </c>
       <c r="G341">
         <v>2</v>
@@ -9112,19 +9136,19 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>5.7554268423605427e-06</v>
+        <v>2.0912203970995045e-08</v>
       </c>
       <c r="C342">
-        <v>0.96510708817580182</v>
+        <v>0.99030784419607532</v>
       </c>
       <c r="D342">
-        <v>0.0230448082904849</v>
+        <v>3.215147871429752e-06</v>
       </c>
       <c r="E342">
-        <v>0.011379442920323574</v>
+        <v>0.0088071580667775946</v>
       </c>
       <c r="F342">
-        <v>0.00046290518654716969</v>
+        <v>0.00088176167707166577</v>
       </c>
       <c r="G342">
         <v>2</v>
@@ -9135,22 +9159,22 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>2.4163112126073728e-05</v>
+        <v>2.2201975758761681e-06</v>
       </c>
       <c r="C343">
-        <v>0.91551552440874451</v>
+        <v>0.0003269044702791117</v>
       </c>
       <c r="D343">
-        <v>0.067399014598836682</v>
+        <v>0.0020162798458189489</v>
       </c>
       <c r="E343">
-        <v>0.015591686805447178</v>
+        <v>0.001758393139536696</v>
       </c>
       <c r="F343">
-        <v>0.0014696110748455256</v>
+        <v>0.99589620234678933</v>
       </c>
       <c r="G343">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344">
@@ -9158,19 +9182,19 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>2.0867002216560199e-05</v>
+        <v>6.6571318075801995e-05</v>
       </c>
       <c r="C344">
-        <v>0.88359113569800574</v>
+        <v>0.94857811551699622</v>
       </c>
       <c r="D344">
-        <v>0.094036954792073413</v>
+        <v>0.03920079574368289</v>
       </c>
       <c r="E344">
-        <v>0.019787825627579202</v>
+        <v>0.011604083100703129</v>
       </c>
       <c r="F344">
-        <v>0.0025632168801252076</v>
+        <v>0.00055043432054206678</v>
       </c>
       <c r="G344">
         <v>2</v>
@@ -9181,19 +9205,19 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>9.2949847374337562e-05</v>
+        <v>5.6517126553212985e-05</v>
       </c>
       <c r="C345">
-        <v>0.79166367402491078</v>
+        <v>0.95224687741588132</v>
       </c>
       <c r="D345">
-        <v>0.18530763930759347</v>
+        <v>0.037224022728313814</v>
       </c>
       <c r="E345">
-        <v>0.021504300555319038</v>
+        <v>0.0098932056982220275</v>
       </c>
       <c r="F345">
-        <v>0.0014314362648023106</v>
+        <v>0.00057937703102971683</v>
       </c>
       <c r="G345">
         <v>2</v>
@@ -9204,19 +9228,19 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>6.1205462530075116e-06</v>
+        <v>1.146400883168574e-06</v>
       </c>
       <c r="C346">
-        <v>0.93733819828738507</v>
+        <v>0.95682329991030446</v>
       </c>
       <c r="D346">
-        <v>0.041630893285798332</v>
+        <v>0.018343587907796669</v>
       </c>
       <c r="E346">
-        <v>0.018767138652388087</v>
+        <v>0.024283492779524251</v>
       </c>
       <c r="F346">
-        <v>0.0022576492281753836</v>
+        <v>0.0005484730014915475</v>
       </c>
       <c r="G346">
         <v>2</v>
@@ -9227,22 +9251,22 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>7.4078592952957992e-05</v>
+        <v>0.00012580396804921014</v>
       </c>
       <c r="C347">
-        <v>0.019408216278174024</v>
+        <v>0.93137398955013206</v>
       </c>
       <c r="D347">
-        <v>2.2010805208459152e-05</v>
+        <v>0.054232171847131867</v>
       </c>
       <c r="E347">
-        <v>0.0028957233422323178</v>
+        <v>0.013859310623790087</v>
       </c>
       <c r="F347">
-        <v>0.97759997098143214</v>
+        <v>0.00040872401089673985</v>
       </c>
       <c r="G347">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -9250,19 +9274,19 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>2.0654081168381148e-05</v>
+        <v>6.6305561329419249e-05</v>
       </c>
       <c r="C348">
-        <v>0.98065909576756927</v>
+        <v>0.9496598790907661</v>
       </c>
       <c r="D348">
-        <v>0.0096427076189435548</v>
+        <v>0.014570168220546529</v>
       </c>
       <c r="E348">
-        <v>0.0095435478885033485</v>
+        <v>0.029705241660614577</v>
       </c>
       <c r="F348">
-        <v>0.00013399464381543558</v>
+        <v>0.0059984054667434877</v>
       </c>
       <c r="G348">
         <v>2</v>
@@ -9273,19 +9297,19 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>6.2637485624891865e-06</v>
+        <v>0.00012580396804921014</v>
       </c>
       <c r="C349">
-        <v>0.95247432753918171</v>
+        <v>0.93137398955013206</v>
       </c>
       <c r="D349">
-        <v>0.038194188812877485</v>
+        <v>0.054232171847131867</v>
       </c>
       <c r="E349">
-        <v>0.008477997869284673</v>
+        <v>0.013859310623790087</v>
       </c>
       <c r="F349">
-        <v>0.00084722203009374565</v>
+        <v>0.00040872401089673985</v>
       </c>
       <c r="G349">
         <v>2</v>
@@ -9296,19 +9320,19 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>0.00011788017435869686</v>
+        <v>5.7554268423605427e-06</v>
       </c>
       <c r="C350">
-        <v>0.93868493862365021</v>
+        <v>0.96510708817580182</v>
       </c>
       <c r="D350">
-        <v>0.04494293262151168</v>
+        <v>0.0230448082904849</v>
       </c>
       <c r="E350">
-        <v>0.014706628006083331</v>
+        <v>0.011379442920323574</v>
       </c>
       <c r="F350">
-        <v>0.0015476205743960995</v>
+        <v>0.00046290518654716969</v>
       </c>
       <c r="G350">
         <v>2</v>
@@ -9319,19 +9343,19 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>6.2637485624891865e-06</v>
+        <v>2.4163112126073728e-05</v>
       </c>
       <c r="C351">
-        <v>0.95247432753918171</v>
+        <v>0.91551552440874451</v>
       </c>
       <c r="D351">
-        <v>0.038194188812877485</v>
+        <v>0.067399014598836682</v>
       </c>
       <c r="E351">
-        <v>0.008477997869284673</v>
+        <v>0.015591686805447178</v>
       </c>
       <c r="F351">
-        <v>0.00084722203009374565</v>
+        <v>0.0014696110748455256</v>
       </c>
       <c r="G351">
         <v>2</v>
@@ -9342,19 +9366,19 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>6.2338538404789209e-06</v>
+        <v>2.0867002216560199e-05</v>
       </c>
       <c r="C352">
-        <v>0.95258987408039575</v>
+        <v>0.88359113569800574</v>
       </c>
       <c r="D352">
-        <v>0.03813883623597604</v>
+        <v>0.094036954792073413</v>
       </c>
       <c r="E352">
-        <v>0.0084224969269862202</v>
+        <v>0.019787825627579202</v>
       </c>
       <c r="F352">
-        <v>0.00084255890280148416</v>
+        <v>0.0025632168801252076</v>
       </c>
       <c r="G352">
         <v>2</v>
@@ -9365,19 +9389,19 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.00024763012904234082</v>
+        <v>9.2949847374337562e-05</v>
       </c>
       <c r="C353">
-        <v>0.92645178733690603</v>
+        <v>0.79166367402491078</v>
       </c>
       <c r="D353">
-        <v>0.050183800319256289</v>
+        <v>0.18530763930759347</v>
       </c>
       <c r="E353">
-        <v>0.021528587551230677</v>
+        <v>0.021504300555319038</v>
       </c>
       <c r="F353">
-        <v>0.0015881946635646971</v>
+        <v>0.0014314362648023106</v>
       </c>
       <c r="G353">
         <v>2</v>
@@ -9388,19 +9412,19 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.00042193902098779784</v>
+        <v>6.1205462530075116e-06</v>
       </c>
       <c r="C354">
-        <v>0.93824633545885872</v>
+        <v>0.93733819828738507</v>
       </c>
       <c r="D354">
-        <v>0.041087688874127719</v>
+        <v>0.041630893285798332</v>
       </c>
       <c r="E354">
-        <v>0.019543153522995713</v>
+        <v>0.018767138652388087</v>
       </c>
       <c r="F354">
-        <v>0.0007008831230299814</v>
+        <v>0.0022576492281753836</v>
       </c>
       <c r="G354">
         <v>2</v>
@@ -9411,22 +9435,22 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>3.1003253184265912e-05</v>
+        <v>7.4078592952957992e-05</v>
       </c>
       <c r="C355">
-        <v>0.83508347711423403</v>
+        <v>0.019408216278174024</v>
       </c>
       <c r="D355">
-        <v>0.15806936746718542</v>
+        <v>2.2010805208459152e-05</v>
       </c>
       <c r="E355">
-        <v>0.0066564712773960876</v>
+        <v>0.0028957233422323178</v>
       </c>
       <c r="F355">
-        <v>0.00015968088800012814</v>
+        <v>0.97759997098143214</v>
       </c>
       <c r="G355">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356">
@@ -9434,22 +9458,22 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>1.3883355724816996e-06</v>
+        <v>2.0654081168381148e-05</v>
       </c>
       <c r="C356">
-        <v>0.00096367979432619233</v>
+        <v>0.98065909576756927</v>
       </c>
       <c r="D356">
-        <v>0.010764870513699508</v>
+        <v>0.0096427076189435548</v>
       </c>
       <c r="E356">
-        <v>0.0011982014965259114</v>
+        <v>0.0095435478885033485</v>
       </c>
       <c r="F356">
-        <v>0.98707185985987589</v>
+        <v>0.00013399464381543558</v>
       </c>
       <c r="G356">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -9457,19 +9481,19 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.00041237144610176206</v>
+        <v>6.2637485624891865e-06</v>
       </c>
       <c r="C357">
-        <v>0.94515981509721914</v>
+        <v>0.95247432753918171</v>
       </c>
       <c r="D357">
-        <v>0.031267943850001929</v>
+        <v>0.038194188812877485</v>
       </c>
       <c r="E357">
-        <v>0.02193944418008055</v>
+        <v>0.008477997869284673</v>
       </c>
       <c r="F357">
-        <v>0.0012204254265965962</v>
+        <v>0.00084722203009374565</v>
       </c>
       <c r="G357">
         <v>2</v>
@@ -9480,19 +9504,19 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.00027843780613378313</v>
+        <v>0.00011788017435869686</v>
       </c>
       <c r="C358">
-        <v>0.82331800547608625</v>
+        <v>0.93868493862365021</v>
       </c>
       <c r="D358">
-        <v>0.12574005920509826</v>
+        <v>0.04494293262151168</v>
       </c>
       <c r="E358">
-        <v>0.044804814996616774</v>
+        <v>0.014706628006083331</v>
       </c>
       <c r="F358">
-        <v>0.0058586825160648623</v>
+        <v>0.0015476205743960995</v>
       </c>
       <c r="G358">
         <v>2</v>
@@ -9503,19 +9527,19 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.00030377777594709177</v>
+        <v>6.2637485624891865e-06</v>
       </c>
       <c r="C359">
-        <v>0.90148155003807506</v>
+        <v>0.95247432753918171</v>
       </c>
       <c r="D359">
-        <v>0.077410985657744874</v>
+        <v>0.038194188812877485</v>
       </c>
       <c r="E359">
-        <v>0.018933238749237722</v>
+        <v>0.008477997869284673</v>
       </c>
       <c r="F359">
-        <v>0.0018704477789951682</v>
+        <v>0.00084722203009374565</v>
       </c>
       <c r="G359">
         <v>2</v>
@@ -9526,22 +9550,22 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.00023967698311847237</v>
+        <v>6.2338538404789209e-06</v>
       </c>
       <c r="C360">
-        <v>0.015738045081595119</v>
+        <v>0.95258987408039575</v>
       </c>
       <c r="D360">
-        <v>0.76392141545900982</v>
+        <v>0.03813883623597604</v>
       </c>
       <c r="E360">
-        <v>0.058665175352795362</v>
+        <v>0.0084224969269862202</v>
       </c>
       <c r="F360">
-        <v>0.16143568712348128</v>
+        <v>0.00084255890280148416</v>
       </c>
       <c r="G360">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -9549,19 +9573,19 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>2.7103655814534454e-05</v>
+        <v>0.00024763012904234082</v>
       </c>
       <c r="C361">
-        <v>0.95407250642366981</v>
+        <v>0.92645178733690603</v>
       </c>
       <c r="D361">
-        <v>0.037502239191891003</v>
+        <v>0.050183800319256289</v>
       </c>
       <c r="E361">
-        <v>0.0082180970436586103</v>
+        <v>0.021528587551230677</v>
       </c>
       <c r="F361">
-        <v>0.00018005368496583219</v>
+        <v>0.0015881946635646971</v>
       </c>
       <c r="G361">
         <v>2</v>
@@ -9572,22 +9596,22 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>6.6508894314825949e-06</v>
+        <v>0.00042193902098779784</v>
       </c>
       <c r="C362">
-        <v>0.0068015328266756627</v>
+        <v>0.93824633545885872</v>
       </c>
       <c r="D362">
-        <v>0.95998687270469618</v>
+        <v>0.041087688874127719</v>
       </c>
       <c r="E362">
-        <v>0.019958574844120138</v>
+        <v>0.019543153522995713</v>
       </c>
       <c r="F362">
-        <v>0.013246368735076461</v>
+        <v>0.0007008831230299814</v>
       </c>
       <c r="G362">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -9595,19 +9619,19 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>1.0034664043806994e-05</v>
+        <v>3.1003253184265912e-05</v>
       </c>
       <c r="C363">
-        <v>0.96632951018017266</v>
+        <v>0.83508347711423403</v>
       </c>
       <c r="D363">
-        <v>0.022389188021585012</v>
+        <v>0.15806936746718542</v>
       </c>
       <c r="E363">
-        <v>0.010677788605528158</v>
+        <v>0.0066564712773960876</v>
       </c>
       <c r="F363">
-        <v>0.00059347852867043505</v>
+        <v>0.00015968088800012814</v>
       </c>
       <c r="G363">
         <v>2</v>
@@ -9618,22 +9642,22 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>0.00015079194406471678</v>
+        <v>1.3883355724816996e-06</v>
       </c>
       <c r="C364">
-        <v>0.97477480523617643</v>
+        <v>0.00096367979432619233</v>
       </c>
       <c r="D364">
-        <v>0.010282964385809336</v>
+        <v>0.010764870513699508</v>
       </c>
       <c r="E364">
-        <v>0.014381650194829152</v>
+        <v>0.0011982014965259114</v>
       </c>
       <c r="F364">
-        <v>0.00040978823912035033</v>
+        <v>0.98707185985987589</v>
       </c>
       <c r="G364">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365">
@@ -9641,19 +9665,19 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1.4689552757604178e-06</v>
+        <v>0.00041237144610176206</v>
       </c>
       <c r="C365">
-        <v>0.95815711688662664</v>
+        <v>0.94515981509721914</v>
       </c>
       <c r="D365">
-        <v>0.027094330889308967</v>
+        <v>0.031267943850001929</v>
       </c>
       <c r="E365">
-        <v>0.014110912031842105</v>
+        <v>0.02193944418008055</v>
       </c>
       <c r="F365">
-        <v>0.0006361712369465514</v>
+        <v>0.0012204254265965962</v>
       </c>
       <c r="G365">
         <v>2</v>
@@ -9664,19 +9688,19 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>2.636641311029325e-06</v>
+        <v>0.00027843780613378313</v>
       </c>
       <c r="C366">
-        <v>0.928081425289627</v>
+        <v>0.82331800547608625</v>
       </c>
       <c r="D366">
-        <v>0.050985309285951574</v>
+        <v>0.12574005920509826</v>
       </c>
       <c r="E366">
-        <v>0.020151008037005553</v>
+        <v>0.044804814996616774</v>
       </c>
       <c r="F366">
-        <v>0.00077962074610494331</v>
+        <v>0.0058586825160648623</v>
       </c>
       <c r="G366">
         <v>2</v>
@@ -9687,19 +9711,19 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>3.1125391314343157e-05</v>
+        <v>0.00030377777594709177</v>
       </c>
       <c r="C367">
-        <v>0.84711574539331091</v>
+        <v>0.90148155003807506</v>
       </c>
       <c r="D367">
-        <v>0.12086363052131031</v>
+        <v>0.077410985657744874</v>
       </c>
       <c r="E367">
-        <v>0.031001834441547246</v>
+        <v>0.018933238749237722</v>
       </c>
       <c r="F367">
-        <v>0.00098766425251717803</v>
+        <v>0.0018704477789951682</v>
       </c>
       <c r="G367">
         <v>2</v>
@@ -9710,22 +9734,22 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>4.4154295301395787e-07</v>
+        <v>0.00023967698311847237</v>
       </c>
       <c r="C368">
-        <v>0.9783180621689167</v>
+        <v>0.015738045081595119</v>
       </c>
       <c r="D368">
-        <v>0.010194038842485728</v>
+        <v>0.76392141545900982</v>
       </c>
       <c r="E368">
-        <v>0.011391058207611694</v>
+        <v>0.058665175352795362</v>
       </c>
       <c r="F368">
-        <v>9.6399238032944385e-05</v>
+        <v>0.16143568712348128</v>
       </c>
       <c r="G368">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -9733,19 +9757,19 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>4.4154295301395787e-07</v>
+        <v>2.7103655814534454e-05</v>
       </c>
       <c r="C369">
-        <v>0.9783180621689167</v>
+        <v>0.95407250642366981</v>
       </c>
       <c r="D369">
-        <v>0.010194038842485728</v>
+        <v>0.037502239191891003</v>
       </c>
       <c r="E369">
-        <v>0.011391058207611694</v>
+        <v>0.0082180970436586103</v>
       </c>
       <c r="F369">
-        <v>9.6399238032944385e-05</v>
+        <v>0.00018005368496583219</v>
       </c>
       <c r="G369">
         <v>2</v>
@@ -9756,22 +9780,22 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.00030138843592056883</v>
+        <v>6.6508894314825949e-06</v>
       </c>
       <c r="C370">
-        <v>0.97416939948497949</v>
+        <v>0.0068015328266756627</v>
       </c>
       <c r="D370">
-        <v>0.012006955098004441</v>
+        <v>0.95998687270469618</v>
       </c>
       <c r="E370">
-        <v>0.012935126155259991</v>
+        <v>0.019958574844120138</v>
       </c>
       <c r="F370">
-        <v>0.00058713082583547297</v>
+        <v>0.013246368735076461</v>
       </c>
       <c r="G370">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -9779,19 +9803,19 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>8.2064610946355496e-05</v>
+        <v>1.0034664043806994e-05</v>
       </c>
       <c r="C371">
-        <v>0.95017073263719865</v>
+        <v>0.96632951018017266</v>
       </c>
       <c r="D371">
-        <v>0.041483544319733334</v>
+        <v>0.022389188021585012</v>
       </c>
       <c r="E371">
-        <v>0.0076556545690962194</v>
+        <v>0.010677788605528158</v>
       </c>
       <c r="F371">
-        <v>0.00060800386302534821</v>
+        <v>0.00059347852867043505</v>
       </c>
       <c r="G371">
         <v>2</v>
@@ -9802,19 +9826,19 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.00015709845692677991</v>
+        <v>0.00015079194406471678</v>
       </c>
       <c r="C372">
-        <v>0.97354562372568321</v>
+        <v>0.97477480523617643</v>
       </c>
       <c r="D372">
-        <v>0.013391284754357779</v>
+        <v>0.010282964385809336</v>
       </c>
       <c r="E372">
-        <v>0.012721383368613946</v>
+        <v>0.014381650194829152</v>
       </c>
       <c r="F372">
-        <v>0.00018460969441828326</v>
+        <v>0.00040978823912035033</v>
       </c>
       <c r="G372">
         <v>2</v>
@@ -9825,19 +9849,19 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>1.6301358488938352e-05</v>
+        <v>1.4689552757604178e-06</v>
       </c>
       <c r="C373">
-        <v>0.93241305512500106</v>
+        <v>0.95815711688662664</v>
       </c>
       <c r="D373">
-        <v>0.053941434070164038</v>
+        <v>0.027094330889308967</v>
       </c>
       <c r="E373">
-        <v>0.01350496097067027</v>
+        <v>0.014110912031842105</v>
       </c>
       <c r="F373">
-        <v>0.00012424847567581141</v>
+        <v>0.0006361712369465514</v>
       </c>
       <c r="G373">
         <v>2</v>
@@ -9848,19 +9872,19 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>3.1332858826124764e-05</v>
+        <v>2.636641311029325e-06</v>
       </c>
       <c r="C374">
-        <v>0.95267282927475261</v>
+        <v>0.928081425289627</v>
       </c>
       <c r="D374">
-        <v>0.040561741241416059</v>
+        <v>0.050985309285951574</v>
       </c>
       <c r="E374">
-        <v>0.0065138136484087896</v>
+        <v>0.020151008037005553</v>
       </c>
       <c r="F374">
-        <v>0.00022028297659630434</v>
+        <v>0.00077962074610494331</v>
       </c>
       <c r="G374">
         <v>2</v>
@@ -9871,19 +9895,19 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>4.7240962114998566e-05</v>
+        <v>3.1125391314343157e-05</v>
       </c>
       <c r="C375">
-        <v>0.8814589984231832</v>
+        <v>0.84711574539331091</v>
       </c>
       <c r="D375">
-        <v>0.087199957397363359</v>
+        <v>0.12086363052131031</v>
       </c>
       <c r="E375">
-        <v>0.029980528890692366</v>
+        <v>0.031001834441547246</v>
       </c>
       <c r="F375">
-        <v>0.0013132743266459912</v>
+        <v>0.00098766425251717803</v>
       </c>
       <c r="G375">
         <v>2</v>
@@ -9894,22 +9918,22 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>0.00043587874176038212</v>
+        <v>4.4154295301395787e-07</v>
       </c>
       <c r="C376">
-        <v>0.02121137839179181</v>
+        <v>0.9783180621689167</v>
       </c>
       <c r="D376">
-        <v>0.67219535323681423</v>
+        <v>0.010194038842485728</v>
       </c>
       <c r="E376">
-        <v>0.031186556858787125</v>
+        <v>0.011391058207611694</v>
       </c>
       <c r="F376">
-        <v>0.27497083277084627</v>
+        <v>9.6399238032944385e-05</v>
       </c>
       <c r="G376">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -9917,19 +9941,19 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>5.1231508225001774e-05</v>
+        <v>4.4154295301395787e-07</v>
       </c>
       <c r="C377">
-        <v>0.94420685733758869</v>
+        <v>0.9783180621689167</v>
       </c>
       <c r="D377">
-        <v>0.042131161625317638</v>
+        <v>0.010194038842485728</v>
       </c>
       <c r="E377">
-        <v>0.013278155595045391</v>
+        <v>0.011391058207611694</v>
       </c>
       <c r="F377">
-        <v>0.00033259393382313959</v>
+        <v>9.6399238032944385e-05</v>
       </c>
       <c r="G377">
         <v>2</v>
@@ -9940,19 +9964,19 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>2.7413202995090096e-06</v>
+        <v>0.00030138843592056883</v>
       </c>
       <c r="C378">
-        <v>0.83840820789305126</v>
+        <v>0.97416939948497949</v>
       </c>
       <c r="D378">
-        <v>0.15338553801399088</v>
+        <v>0.012006955098004441</v>
       </c>
       <c r="E378">
-        <v>0.0080328942832163068</v>
+        <v>0.012935126155259991</v>
       </c>
       <c r="F378">
-        <v>0.00017061848944190661</v>
+        <v>0.00058713082583547297</v>
       </c>
       <c r="G378">
         <v>2</v>
@@ -9963,19 +9987,19 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>2.1207294005166814e-06</v>
+        <v>8.2064610946355496e-05</v>
       </c>
       <c r="C379">
-        <v>0.969134979297681</v>
+        <v>0.95017073263719865</v>
       </c>
       <c r="D379">
-        <v>0.017865994603496464</v>
+        <v>0.041483544319733334</v>
       </c>
       <c r="E379">
-        <v>0.012339028303869721</v>
+        <v>0.0076556545690962194</v>
       </c>
       <c r="F379">
-        <v>0.000657877065552389</v>
+        <v>0.00060800386302534821</v>
       </c>
       <c r="G379">
         <v>2</v>
@@ -9986,19 +10010,19 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.00013904196662923503</v>
+        <v>0.00015709845692677991</v>
       </c>
       <c r="C380">
-        <v>0.98704562492536263</v>
+        <v>0.97354562372568321</v>
       </c>
       <c r="D380">
-        <v>0.0027748441986699666</v>
+        <v>0.013391284754357779</v>
       </c>
       <c r="E380">
-        <v>0.0098217974093929693</v>
+        <v>0.012721383368613946</v>
       </c>
       <c r="F380">
-        <v>0.0002186914999452318</v>
+        <v>0.00018460969441828326</v>
       </c>
       <c r="G380">
         <v>2</v>
@@ -10009,19 +10033,19 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.00013617664955485668</v>
+        <v>1.6301358488938352e-05</v>
       </c>
       <c r="C381">
-        <v>0.88422467471702026</v>
+        <v>0.93241305512500106</v>
       </c>
       <c r="D381">
-        <v>0.10113919215508479</v>
+        <v>0.053941434070164038</v>
       </c>
       <c r="E381">
-        <v>0.014307487876954119</v>
+        <v>0.01350496097067027</v>
       </c>
       <c r="F381">
-        <v>0.00019246860138604819</v>
+        <v>0.00012424847567581141</v>
       </c>
       <c r="G381">
         <v>2</v>
@@ -10032,19 +10056,19 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>7.6633041577351543e-05</v>
+        <v>3.1332858826124764e-05</v>
       </c>
       <c r="C382">
-        <v>0.9686021696834145</v>
+        <v>0.95267282927475261</v>
       </c>
       <c r="D382">
-        <v>0.024337955446982824</v>
+        <v>0.040561741241416059</v>
       </c>
       <c r="E382">
-        <v>0.0068629619163543838</v>
+        <v>0.0065138136484087896</v>
       </c>
       <c r="F382">
-        <v>0.00012027991167093013</v>
+        <v>0.00022028297659630434</v>
       </c>
       <c r="G382">
         <v>2</v>
@@ -10055,19 +10079,19 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>0.0017164885167495162</v>
+        <v>4.7240962114998566e-05</v>
       </c>
       <c r="C383">
-        <v>0.53840621185622428</v>
+        <v>0.8814589984231832</v>
       </c>
       <c r="D383">
-        <v>0.44500451821470283</v>
+        <v>0.087199957397363359</v>
       </c>
       <c r="E383">
-        <v>0.014486998281389352</v>
+        <v>0.029980528890692366</v>
       </c>
       <c r="F383">
-        <v>0.00038578313093397834</v>
+        <v>0.0013132743266459912</v>
       </c>
       <c r="G383">
         <v>2</v>
@@ -10078,22 +10102,22 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>8.1043043338740721e-05</v>
+        <v>0.00043587874176038212</v>
       </c>
       <c r="C384">
-        <v>0.76263849575699061</v>
+        <v>0.02121137839179181</v>
       </c>
       <c r="D384">
-        <v>0.19540585817237247</v>
+        <v>0.67219535323681423</v>
       </c>
       <c r="E384">
-        <v>0.038225722777132938</v>
+        <v>0.031186556858787125</v>
       </c>
       <c r="F384">
-        <v>0.0036488802501651956</v>
+        <v>0.27497083277084627</v>
       </c>
       <c r="G384">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -10101,19 +10125,19 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.00031946371697955833</v>
+        <v>5.1231508225001774e-05</v>
       </c>
       <c r="C385">
-        <v>0.97038447593516031</v>
+        <v>0.94420685733758869</v>
       </c>
       <c r="D385">
-        <v>0.008526672020499176</v>
+        <v>0.042131161625317638</v>
       </c>
       <c r="E385">
-        <v>0.019226884018066385</v>
+        <v>0.013278155595045391</v>
       </c>
       <c r="F385">
-        <v>0.0015425043092945488</v>
+        <v>0.00033259393382313959</v>
       </c>
       <c r="G385">
         <v>2</v>
@@ -10124,19 +10148,19 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>3.6243465901934865e-06</v>
+        <v>2.7413202995090096e-06</v>
       </c>
       <c r="C386">
-        <v>0.94008191021774257</v>
+        <v>0.83840820789305126</v>
       </c>
       <c r="D386">
-        <v>0.035792281565904749</v>
+        <v>0.15338553801399088</v>
       </c>
       <c r="E386">
-        <v>0.023585587457015347</v>
+        <v>0.0080328942832163068</v>
       </c>
       <c r="F386">
-        <v>0.00053659641274714806</v>
+        <v>0.00017061848944190661</v>
       </c>
       <c r="G386">
         <v>2</v>
@@ -10147,19 +10171,19 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.00019327355893900217</v>
+        <v>2.1207294005166814e-06</v>
       </c>
       <c r="C387">
-        <v>0.97488945118283921</v>
+        <v>0.969134979297681</v>
       </c>
       <c r="D387">
-        <v>0.012909447855950527</v>
+        <v>0.017865994603496464</v>
       </c>
       <c r="E387">
-        <v>0.011383209968634209</v>
+        <v>0.012339028303869721</v>
       </c>
       <c r="F387">
-        <v>0.00062461743363692677</v>
+        <v>0.000657877065552389</v>
       </c>
       <c r="G387">
         <v>2</v>
@@ -10170,19 +10194,19 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.00087142791836048383</v>
+        <v>0.00013904196662923503</v>
       </c>
       <c r="C388">
-        <v>0.92769367858113527</v>
+        <v>0.98704562492536263</v>
       </c>
       <c r="D388">
-        <v>0.027236534210188863</v>
+        <v>0.0027748441986699666</v>
       </c>
       <c r="E388">
-        <v>0.038829629069053781</v>
+        <v>0.0098217974093929693</v>
       </c>
       <c r="F388">
-        <v>0.0053687302212614861</v>
+        <v>0.0002186914999452318</v>
       </c>
       <c r="G388">
         <v>2</v>
@@ -10193,19 +10217,19 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.013997074787896554</v>
+        <v>0.00013617664955485668</v>
       </c>
       <c r="C389">
-        <v>0.8414809530502797</v>
+        <v>0.88422467471702026</v>
       </c>
       <c r="D389">
-        <v>0.095977246655019235</v>
+        <v>0.10113919215508479</v>
       </c>
       <c r="E389">
-        <v>0.044092430512379467</v>
+        <v>0.014307487876954119</v>
       </c>
       <c r="F389">
-        <v>0.0044522949944252078</v>
+        <v>0.00019246860138604819</v>
       </c>
       <c r="G389">
         <v>2</v>
@@ -10216,19 +10240,19 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>0.00059088456152601467</v>
+        <v>7.6633041577351543e-05</v>
       </c>
       <c r="C390">
-        <v>0.91100378192195208</v>
+        <v>0.9686021696834145</v>
       </c>
       <c r="D390">
-        <v>0.074309783861498155</v>
+        <v>0.024337955446982824</v>
       </c>
       <c r="E390">
-        <v>0.013772038241076518</v>
+        <v>0.0068629619163543838</v>
       </c>
       <c r="F390">
-        <v>0.00032351141394726862</v>
+        <v>0.00012027991167093013</v>
       </c>
       <c r="G390">
         <v>2</v>
@@ -10239,21 +10263,205 @@
         <v>390</v>
       </c>
       <c r="B391">
+        <v>0.0017164885167495162</v>
+      </c>
+      <c r="C391">
+        <v>0.53840621185622428</v>
+      </c>
+      <c r="D391">
+        <v>0.44500451821470283</v>
+      </c>
+      <c r="E391">
+        <v>0.014486998281389352</v>
+      </c>
+      <c r="F391">
+        <v>0.00038578313093397834</v>
+      </c>
+      <c r="G391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>8.1043043338740721e-05</v>
+      </c>
+      <c r="C392">
+        <v>0.76263849575699061</v>
+      </c>
+      <c r="D392">
+        <v>0.19540585817237247</v>
+      </c>
+      <c r="E392">
+        <v>0.038225722777132938</v>
+      </c>
+      <c r="F392">
+        <v>0.0036488802501651956</v>
+      </c>
+      <c r="G392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>0.00031946371697955833</v>
+      </c>
+      <c r="C393">
+        <v>0.97038447593516031</v>
+      </c>
+      <c r="D393">
+        <v>0.008526672020499176</v>
+      </c>
+      <c r="E393">
+        <v>0.019226884018066385</v>
+      </c>
+      <c r="F393">
+        <v>0.0015425043092945488</v>
+      </c>
+      <c r="G393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>3.6243465901934865e-06</v>
+      </c>
+      <c r="C394">
+        <v>0.94008191021774257</v>
+      </c>
+      <c r="D394">
+        <v>0.035792281565904749</v>
+      </c>
+      <c r="E394">
+        <v>0.023585587457015347</v>
+      </c>
+      <c r="F394">
+        <v>0.00053659641274714806</v>
+      </c>
+      <c r="G394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>0.00019327355893900217</v>
+      </c>
+      <c r="C395">
+        <v>0.97488945118283921</v>
+      </c>
+      <c r="D395">
+        <v>0.012909447855950527</v>
+      </c>
+      <c r="E395">
+        <v>0.011383209968634209</v>
+      </c>
+      <c r="F395">
+        <v>0.00062461743363692677</v>
+      </c>
+      <c r="G395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>0.00087142791836048383</v>
+      </c>
+      <c r="C396">
+        <v>0.92769367858113527</v>
+      </c>
+      <c r="D396">
+        <v>0.027236534210188863</v>
+      </c>
+      <c r="E396">
+        <v>0.038829629069053781</v>
+      </c>
+      <c r="F396">
+        <v>0.0053687302212614861</v>
+      </c>
+      <c r="G396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>0.013997074787896554</v>
+      </c>
+      <c r="C397">
+        <v>0.8414809530502797</v>
+      </c>
+      <c r="D397">
+        <v>0.095977246655019235</v>
+      </c>
+      <c r="E397">
+        <v>0.044092430512379467</v>
+      </c>
+      <c r="F397">
+        <v>0.0044522949944252078</v>
+      </c>
+      <c r="G397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>0.00059088456152601467</v>
+      </c>
+      <c r="C398">
+        <v>0.91100378192195208</v>
+      </c>
+      <c r="D398">
+        <v>0.074309783861498155</v>
+      </c>
+      <c r="E398">
+        <v>0.013772038241076518</v>
+      </c>
+      <c r="F398">
+        <v>0.00032351141394726862</v>
+      </c>
+      <c r="G398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
         <v>5.514590460602789e-05</v>
       </c>
-      <c r="C391">
+      <c r="C399">
         <v>0.49940183947105227</v>
       </c>
-      <c r="D391">
+      <c r="D399">
         <v>0.49156815021194206</v>
       </c>
-      <c r="E391">
+      <c r="E399">
         <v>0.0087562578389863924</v>
       </c>
-      <c r="F391">
+      <c r="F399">
         <v>0.00021860657341328201</v>
       </c>
-      <c r="G391">
+      <c r="G399">
         <v>2</v>
       </c>
     </row>
